--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/34_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/34_11R22.xlsx
@@ -689,16 +689,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.03870502709331878</v>
+        <v>0.04135734829800942</v>
       </c>
       <c r="E2">
-        <v>0.01442294103101579</v>
+        <v>0.02072078377087211</v>
       </c>
       <c r="F2">
-        <v>0.05481627818721881</v>
+        <v>0.0550497827930977</v>
       </c>
       <c r="G2">
-        <v>0.127566958481816</v>
+        <v>0.1168782477956718</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.01804883216754858</v>
+        <v>0.02380231211301889</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.00819322069780005</v>
       </c>
       <c r="M2">
-        <v>0.04986564470169137</v>
+        <v>0.0508423985052667</v>
       </c>
       <c r="N2">
-        <v>0.001962358969917726</v>
+        <v>0.01013093555561741</v>
       </c>
       <c r="O2">
-        <v>0.1558656093300014</v>
+        <v>0.1409283616434324</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -731,55 +731,55 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0.09575161758967751</v>
+        <v>0.08983941210466539</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0.2568037386478605</v>
+        <v>0.2267124336367499</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.002612633895459219</v>
       </c>
       <c r="V2">
-        <v>0.08930399832224134</v>
+        <v>0.08435978771335638</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0.06503752042495724</v>
+        <v>0.06373648806402799</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.002951649283817465</v>
+        <v>0.01097170159797809</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>0.003592481191508053</v>
       </c>
       <c r="AB2">
-        <v>0.01722365271253467</v>
+        <v>0.02310101861516332</v>
       </c>
       <c r="AC2">
-        <v>0.01167417305638264</v>
+        <v>0.01838469421361165</v>
       </c>
       <c r="AD2">
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>0.004329687384365971</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>0.001356606006822658</v>
       </c>
       <c r="AG2">
         <v>0</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>0.003099664403504903</v>
       </c>
       <c r="AI2">
         <v>0</v>
@@ -799,16 +799,16 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.06030395935270255</v>
+        <v>0.05993219647006445</v>
       </c>
       <c r="E3">
-        <v>0.01833892476396565</v>
+        <v>0.0219268943180344</v>
       </c>
       <c r="F3">
-        <v>0.1264042207040559</v>
+        <v>0.1197953761291749</v>
       </c>
       <c r="G3">
-        <v>0.1009281621099216</v>
+        <v>0.09672318486324026</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -820,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.006161172916394787</v>
+        <v>0.01089820953235356</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.002679759276784008</v>
       </c>
       <c r="M3">
-        <v>0.02290097862502213</v>
+        <v>0.02605848236800163</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.001698762190768015</v>
       </c>
       <c r="O3">
-        <v>0.1387815912424963</v>
+        <v>0.1310048440057321</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -841,46 +841,46 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0.03740446883307973</v>
+        <v>0.03919345373209479</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.1984627542252333</v>
+        <v>0.1850546179228074</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.002913212126515506</v>
       </c>
       <c r="V3">
-        <v>0.08984786457455754</v>
+        <v>0.08668840090814907</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0.0978104781306605</v>
+        <v>0.09389967898965849</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.0204739724653183</v>
+        <v>0.02386048340700141</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.05130134309047839</v>
+        <v>0.05177904815128674</v>
       </c>
       <c r="AC3">
-        <v>0.02295002717320101</v>
+        <v>0.02610290279829379</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>0.003841576449711024</v>
       </c>
       <c r="AE3">
-        <v>0.007930081792912311</v>
+        <v>0.01250020788622838</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.003448708474100095</v>
       </c>
       <c r="AI3">
         <v>0</v>
@@ -909,19 +909,19 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.05652261696613039</v>
+        <v>0.05678798442086321</v>
       </c>
       <c r="E4">
-        <v>0.02271715538431906</v>
+        <v>0.0242871400443589</v>
       </c>
       <c r="F4">
-        <v>0.165753648731275</v>
+        <v>0.161803582444647</v>
       </c>
       <c r="G4">
-        <v>0.0956362656625275</v>
+        <v>0.09439216285228069</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.001346795382716377</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -930,19 +930,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.02588740307222113</v>
+        <v>0.02733504183058729</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.04432237569580003</v>
+        <v>0.04505857371829926</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.001176587679292648</v>
       </c>
       <c r="O4">
-        <v>0.1749542918933592</v>
+        <v>0.1706491552480527</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -951,46 +951,46 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0.03546836936935121</v>
+        <v>0.03654626037425295</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.000190747852124653</v>
       </c>
       <c r="T4">
-        <v>0.1587505841899322</v>
+        <v>0.1550707795137956</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4">
-        <v>0.08371135053624627</v>
+        <v>0.08292745293301676</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>0.0719702556851963</v>
+        <v>0.07163946931414898</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.01057916320763586</v>
+        <v>0.01261757612425373</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.04611142699941614</v>
+        <v>0.04677858212166607</v>
       </c>
       <c r="AC4">
-        <v>0.007615092606589643</v>
+        <v>0.00976789465806702</v>
       </c>
       <c r="AD4">
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>0.001624213487576147</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1022,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1123365162505709</v>
+        <v>0.1073546664688817</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.08023435786795294</v>
+        <v>0.07793028104451112</v>
       </c>
       <c r="H5">
-        <v>0.0548712682281909</v>
+        <v>0.05468283094416811</v>
       </c>
       <c r="I5">
-        <v>0.008559740557759649</v>
+        <v>0.0122343381193363</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1043,19 +1043,19 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.05051418482231758</v>
+        <v>0.05068918977111965</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.04832634546479715</v>
+        <v>0.04868384708559027</v>
       </c>
       <c r="O5">
-        <v>0.04971525270161967</v>
+        <v>0.04995689986191362</v>
       </c>
       <c r="P5">
-        <v>0.151924940671481</v>
+        <v>0.1436408577156097</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1064,43 +1064,43 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.03894356192885025</v>
+        <v>0.04008372008401682</v>
       </c>
       <c r="T5">
-        <v>0.0523576996723563</v>
+        <v>0.05237892947137797</v>
       </c>
       <c r="U5">
-        <v>0.1580301522983452</v>
+        <v>0.1492368085505999</v>
       </c>
       <c r="V5">
-        <v>0.01205157270082377</v>
+        <v>0.01543490219325717</v>
       </c>
       <c r="W5">
-        <v>0.04955608083125958</v>
+        <v>0.04981100517139557</v>
       </c>
       <c r="X5">
-        <v>0.03398299333837992</v>
+        <v>0.03553693290571114</v>
       </c>
       <c r="Y5">
-        <v>0.04609276335575605</v>
+        <v>0.04663657723942972</v>
       </c>
       <c r="Z5">
-        <v>0.0001176131962880529</v>
+        <v>0.004496403294989217</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.01340084435790701</v>
+        <v>0.0166716255564343</v>
       </c>
       <c r="AC5">
-        <v>0.03752828328949263</v>
+        <v>0.03878649565222017</v>
       </c>
       <c r="AD5">
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.001455828465851617</v>
+        <v>0.005722992529367206</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>3.069634007033281E-05</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -1132,19 +1132,19 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.160701448128282</v>
+        <v>0.1437771502484968</v>
       </c>
       <c r="F6">
-        <v>0.018548893209366</v>
+        <v>0.02330623374455199</v>
       </c>
       <c r="G6">
-        <v>0.2405999813044859</v>
+        <v>0.2114892608366498</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.00406383546280327</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1153,64 +1153,64 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.03463559353624502</v>
+        <v>0.03693933047650205</v>
       </c>
       <c r="M6">
-        <v>0.03066996784170477</v>
+        <v>0.03357855681889624</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.005540189748102918</v>
       </c>
       <c r="O6">
-        <v>0.1233111703301069</v>
+        <v>0.1120897772199037</v>
       </c>
       <c r="P6">
-        <v>0.01090467497612231</v>
+        <v>0.01682794021658608</v>
       </c>
       <c r="Q6">
-        <v>0.009768924621187827</v>
+        <v>0.01586541874620742</v>
       </c>
       <c r="R6">
-        <v>0.007150223823547681</v>
+        <v>0.01364613197136705</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.001484990189108274</v>
       </c>
       <c r="T6">
-        <v>0.1191762215200979</v>
+        <v>0.1085855062405828</v>
       </c>
       <c r="U6">
-        <v>0.02328755529402197</v>
+        <v>0.02732213739585551</v>
       </c>
       <c r="V6">
-        <v>0.07460492484545161</v>
+        <v>0.07081239014550691</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>0.006475379190420314</v>
       </c>
       <c r="X6">
-        <v>0.07524020089070731</v>
+        <v>0.0713507715164827</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>0.003706598333989159</v>
       </c>
       <c r="Z6">
-        <v>0.02241279848880293</v>
+        <v>0.02658080176454792</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.01427928202436894</v>
+        <v>0.01968783959844971</v>
       </c>
       <c r="AC6">
-        <v>0.02300232741845698</v>
+        <v>0.02708041354079439</v>
       </c>
       <c r="AD6">
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.01170581174704414</v>
+        <v>0.01750688461609417</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1219,10 +1219,10 @@
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>0.001112956023193792</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>0.001169505954907122</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.08457144122612088</v>
+        <v>0.07942997222424276</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.002705659660939972</v>
       </c>
       <c r="G7">
-        <v>0.1665671271071001</v>
+        <v>0.1488056761555753</v>
       </c>
       <c r="H7">
-        <v>0.08287085775883807</v>
+        <v>0.07799112609631373</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1260,82 +1260,82 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.008185220064022973</v>
+        <v>0.01480037852260266</v>
       </c>
       <c r="L7">
-        <v>0.01872248229314389</v>
+        <v>0.02371584738904317</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.03462929242638666</v>
+        <v>0.03717443534326339</v>
       </c>
       <c r="O7">
-        <v>0.0342253815590654</v>
+        <v>0.03683269052529087</v>
       </c>
       <c r="P7">
-        <v>0.1329328191097628</v>
+        <v>0.1203480351408325</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.001151300285389212</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0.08740539744241302</v>
+        <v>0.08182775334288879</v>
       </c>
       <c r="T7">
-        <v>0.00235542941676125</v>
+        <v>0.009867852797857171</v>
       </c>
       <c r="U7">
-        <v>0.1959198820579457</v>
+        <v>0.1736407393074917</v>
       </c>
       <c r="V7">
         <v>0</v>
       </c>
       <c r="W7">
-        <v>0.07072477406827028</v>
+        <v>0.06771444998843709</v>
       </c>
       <c r="X7">
-        <v>0.003583283743337383</v>
+        <v>0.01090672767665261</v>
       </c>
       <c r="Y7">
-        <v>0.0439685140725229</v>
+        <v>0.04507625443179349</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>0.001502980493914679</v>
       </c>
       <c r="AA7">
-        <v>0.004360804316237073</v>
+        <v>0.0115645798122431</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>0.0008359723090414664</v>
       </c>
       <c r="AC7">
-        <v>0.01741824732671275</v>
+        <v>0.02261234763883244</v>
       </c>
       <c r="AD7">
-        <v>0.00867135597331335</v>
+        <v>0.01521169310032659</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>0.002887690038045289</v>
+        <v>0.0103181930185623</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>0.001444284333509359</v>
       </c>
       <c r="AH7">
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>0.001892906691727291</v>
       </c>
       <c r="AJ7">
-        <v>0</v>
+        <v>0.002628143713228321</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -1352,16 +1352,16 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1728809280572238</v>
+        <v>0.171915518970356</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.228687318397725</v>
+        <v>0.2272738736521296</v>
       </c>
       <c r="H8">
-        <v>0.04249481367926647</v>
+        <v>0.04257619561915814</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1373,64 +1373,64 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.01861986741488254</v>
+        <v>0.01889292681700363</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.007043483693416783</v>
+        <v>0.007409482858792315</v>
       </c>
       <c r="O8">
-        <v>0.06929175436053406</v>
+        <v>0.06915799991735626</v>
       </c>
       <c r="P8">
-        <v>0.08971747467029417</v>
+        <v>0.08941973450795171</v>
       </c>
       <c r="Q8">
-        <v>0.002071417518635323</v>
+        <v>0.00247733438752588</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>0.05149099313750871</v>
+        <v>0.05150015020915476</v>
       </c>
       <c r="T8">
-        <v>0.05121251909898747</v>
+        <v>0.05122391186978063</v>
       </c>
       <c r="U8">
-        <v>0.1266054848195321</v>
+        <v>0.126011593198091</v>
       </c>
       <c r="V8">
-        <v>0.01618646643725389</v>
+        <v>0.01647906213984717</v>
       </c>
       <c r="W8">
-        <v>0.03793256996620089</v>
+        <v>0.03805057939363991</v>
       </c>
       <c r="X8">
-        <v>0.02562274096242577</v>
+        <v>0.02583957854042033</v>
       </c>
       <c r="Y8">
-        <v>0.0269383872540347</v>
+        <v>0.02714466230595801</v>
       </c>
       <c r="Z8">
-        <v>0.002401085435425602</v>
+        <v>0.00280435560057203</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.0004980654020620921</v>
+        <v>0.0009166137607812951</v>
       </c>
       <c r="AC8">
-        <v>0.02834044618828464</v>
+        <v>0.02853546495944245</v>
       </c>
       <c r="AD8">
         <v>0</v>
       </c>
       <c r="AE8">
-        <v>0.001964183506306175</v>
+        <v>0.002370961292039028</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1459,16 +1459,16 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0498952464202236</v>
+        <v>0.0482312761539142</v>
       </c>
       <c r="E9">
-        <v>0.02337965395445596</v>
+        <v>0.0177164565589908</v>
       </c>
       <c r="F9">
-        <v>0.12297622539169</v>
+        <v>0.1323347293207159</v>
       </c>
       <c r="G9">
-        <v>0.1410350046018686</v>
+        <v>0.1531172326879172</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1477,22 +1477,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.01407712531381272</v>
+        <v>0.007010869511961233</v>
       </c>
       <c r="K9">
-        <v>0.005719178801708616</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.007985089992038575</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.01838475106665975</v>
+        <v>0.01196819501393801</v>
       </c>
       <c r="N9">
-        <v>0.005562992463979012</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.1711658820531211</v>
+        <v>0.1877926143845071</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1501,40 +1501,40 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>0.05927685287524737</v>
+        <v>0.0590278679651367</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>0.1651729870377995</v>
+        <v>0.1808958380639347</v>
       </c>
       <c r="U9">
         <v>0</v>
       </c>
       <c r="V9">
-        <v>0.08306956623594997</v>
+        <v>0.08640912888973751</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>0.06677763421451555</v>
+        <v>0.06765995829780541</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0.01545606746124388</v>
+        <v>0.008597791279408896</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.03466013886941968</v>
+        <v>0.03069832609736799</v>
       </c>
       <c r="AC9">
-        <v>0.01540560324626599</v>
+        <v>0.008539715774664372</v>
       </c>
       <c r="AD9">
         <v>0</v>
@@ -1572,13 +1572,13 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1343147580464003</v>
+        <v>0.1306499020368805</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.2149794507666789</v>
+        <v>0.2078023066044032</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1587,70 +1587,70 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.01193322492969846</v>
+        <v>0.01359708455010669</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.03590487230435119</v>
+        <v>0.03652496258483274</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.002056200868358946</v>
       </c>
       <c r="O10">
-        <v>0.1066180672263987</v>
+        <v>0.1041591757567175</v>
       </c>
       <c r="P10">
-        <v>0.06104891090875249</v>
+        <v>0.0605741837923722</v>
       </c>
       <c r="Q10">
-        <v>0.0127434912545719</v>
+        <v>0.01437207039826277</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>0.02939141155012085</v>
+        <v>0.03029510981656293</v>
       </c>
       <c r="T10">
-        <v>0.08217725273069976</v>
+        <v>0.08078255899489731</v>
       </c>
       <c r="U10">
-        <v>0.1136458612846165</v>
+        <v>0.1108809668168667</v>
       </c>
       <c r="V10">
-        <v>0.02298487113742278</v>
+        <v>0.02416752188273563</v>
       </c>
       <c r="W10">
-        <v>0.01685455447673016</v>
+        <v>0.01830413041389439</v>
       </c>
       <c r="X10">
-        <v>0.05647549717225502</v>
+        <v>0.05619990484883865</v>
       </c>
       <c r="Y10">
-        <v>0.02475477371664055</v>
+        <v>0.02586035966878453</v>
       </c>
       <c r="Z10">
-        <v>0.008599962861450499</v>
+        <v>0.0104089588045487</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.02185379075852954</v>
+        <v>0.02308569081082702</v>
       </c>
       <c r="AC10">
-        <v>0.03705240668982553</v>
+        <v>0.03762253122580275</v>
       </c>
       <c r="AD10">
         <v>0</v>
       </c>
       <c r="AE10">
-        <v>0.005403367850013785</v>
+        <v>0.007351549382360567</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1662,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="AI10">
-        <v>0.003263474334843034</v>
+        <v>0.005304830741946437</v>
       </c>
       <c r="AJ10">
         <v>0</v>
@@ -1682,19 +1682,19 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1771507151145562</v>
+        <v>0.1631414710949198</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.2101698653236925</v>
+        <v>0.1924940083970885</v>
       </c>
       <c r="H11">
-        <v>0.03588679022922567</v>
+        <v>0.03756420461820427</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.004640637244962681</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1703,67 +1703,67 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.02531208872190481</v>
+        <v>0.02816377127915821</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.004609200477716417</v>
       </c>
       <c r="O11">
-        <v>0.07414864962115657</v>
+        <v>0.07157727424412179</v>
       </c>
       <c r="P11">
-        <v>0.09237383182305908</v>
+        <v>0.08777864033113093</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>0.002734678690241851</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.04978261201688025</v>
+        <v>0.04991696429805696</v>
       </c>
       <c r="T11">
-        <v>0.03988963908832272</v>
+        <v>0.04112255695941864</v>
       </c>
       <c r="U11">
-        <v>0.1212862453976536</v>
+        <v>0.1134804737389814</v>
       </c>
       <c r="V11">
-        <v>0.0144605450701462</v>
+        <v>0.01851723774310671</v>
       </c>
       <c r="W11">
-        <v>0.03901372461278434</v>
+        <v>0.04034390844321196</v>
       </c>
       <c r="X11">
-        <v>0.02701584454836417</v>
+        <v>0.02967833346907484</v>
       </c>
       <c r="Y11">
-        <v>0.0350558061323844</v>
+        <v>0.03682549718492534</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>0.004509611069522554</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.008390812056361829</v>
+        <v>0.01312151848404434</v>
       </c>
       <c r="AC11">
-        <v>0.04888899260631004</v>
+        <v>0.04912257689206471</v>
       </c>
       <c r="AD11">
-        <v>0.001173837637197552</v>
+        <v>0.006705953289132037</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>0.002451419030229451</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>0.0005497262494412238</v>
       </c>
       <c r="AG11">
         <v>0</v>
@@ -1772,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>0.0009503367712454924</v>
       </c>
       <c r="AJ11">
         <v>0</v>
@@ -1912,103 +1912,103 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.03870502709331878</v>
+        <v>0.04135734829800942</v>
       </c>
       <c r="E2">
-        <v>0.05312796812433457</v>
+        <v>0.06207813206888152</v>
       </c>
       <c r="F2">
-        <v>0.1079442463115534</v>
+        <v>0.1171279148619792</v>
       </c>
       <c r="G2">
-        <v>0.2355112047933694</v>
+        <v>0.234006162657651</v>
       </c>
       <c r="H2">
-        <v>0.2355112047933694</v>
+        <v>0.234006162657651</v>
       </c>
       <c r="I2">
-        <v>0.2355112047933694</v>
+        <v>0.234006162657651</v>
       </c>
       <c r="J2">
-        <v>0.2355112047933694</v>
+        <v>0.234006162657651</v>
       </c>
       <c r="K2">
-        <v>0.253560036960918</v>
+        <v>0.2578084747706699</v>
       </c>
       <c r="L2">
-        <v>0.253560036960918</v>
+        <v>0.26600169546847</v>
       </c>
       <c r="M2">
-        <v>0.3034256816626094</v>
+        <v>0.3168440939737367</v>
       </c>
       <c r="N2">
-        <v>0.3053880406325271</v>
+        <v>0.3269750295293541</v>
       </c>
       <c r="O2">
-        <v>0.4612536499625285</v>
+        <v>0.4679033911727865</v>
       </c>
       <c r="P2">
-        <v>0.4612536499625285</v>
+        <v>0.4679033911727865</v>
       </c>
       <c r="Q2">
-        <v>0.4612536499625285</v>
+        <v>0.4679033911727865</v>
       </c>
       <c r="R2">
-        <v>0.557005267552206</v>
+        <v>0.5577428032774518</v>
       </c>
       <c r="S2">
-        <v>0.557005267552206</v>
+        <v>0.5577428032774518</v>
       </c>
       <c r="T2">
-        <v>0.8138090062000666</v>
+        <v>0.7844552369142017</v>
       </c>
       <c r="U2">
-        <v>0.8138090062000666</v>
+        <v>0.7870678708096609</v>
       </c>
       <c r="V2">
-        <v>0.9031130045223079</v>
+        <v>0.8714276585230173</v>
       </c>
       <c r="W2">
-        <v>0.9031130045223079</v>
+        <v>0.8714276585230173</v>
       </c>
       <c r="X2">
-        <v>0.9681505249472652</v>
+        <v>0.9351641465870453</v>
       </c>
       <c r="Y2">
-        <v>0.9681505249472652</v>
+        <v>0.9351641465870453</v>
       </c>
       <c r="Z2">
-        <v>0.9711021742310826</v>
+        <v>0.9461358481850234</v>
       </c>
       <c r="AA2">
-        <v>0.9711021742310826</v>
+        <v>0.9497283293765314</v>
       </c>
       <c r="AB2">
-        <v>0.9883258269436173</v>
+        <v>0.9728293479916947</v>
       </c>
       <c r="AC2">
-        <v>0.9999999999999999</v>
+        <v>0.9912140422053064</v>
       </c>
       <c r="AD2">
-        <v>0.9999999999999999</v>
+        <v>0.9912140422053064</v>
       </c>
       <c r="AE2">
-        <v>0.9999999999999999</v>
+        <v>0.9955437295896724</v>
       </c>
       <c r="AF2">
-        <v>0.9999999999999999</v>
+        <v>0.996900335596495</v>
       </c>
       <c r="AG2">
-        <v>0.9999999999999999</v>
+        <v>0.996900335596495</v>
       </c>
       <c r="AH2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ2">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -2022,94 +2022,94 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.06030395935270255</v>
+        <v>0.05993219647006445</v>
       </c>
       <c r="E3">
-        <v>0.0786428841166682</v>
+        <v>0.08185909078809886</v>
       </c>
       <c r="F3">
-        <v>0.2050471048207241</v>
+        <v>0.2016544669172737</v>
       </c>
       <c r="G3">
-        <v>0.3059752669306457</v>
+        <v>0.298377651780514</v>
       </c>
       <c r="H3">
-        <v>0.3059752669306457</v>
+        <v>0.298377651780514</v>
       </c>
       <c r="I3">
-        <v>0.3059752669306457</v>
+        <v>0.298377651780514</v>
       </c>
       <c r="J3">
-        <v>0.3059752669306457</v>
+        <v>0.298377651780514</v>
       </c>
       <c r="K3">
-        <v>0.3121364398470405</v>
+        <v>0.3092758613128676</v>
       </c>
       <c r="L3">
-        <v>0.3121364398470405</v>
+        <v>0.3119556205896515</v>
       </c>
       <c r="M3">
-        <v>0.3350374184720626</v>
+        <v>0.3380141029576532</v>
       </c>
       <c r="N3">
-        <v>0.3350374184720626</v>
+        <v>0.3397128651484212</v>
       </c>
       <c r="O3">
-        <v>0.4738190097145589</v>
+        <v>0.4707177091541533</v>
       </c>
       <c r="P3">
-        <v>0.4738190097145589</v>
+        <v>0.4707177091541533</v>
       </c>
       <c r="Q3">
-        <v>0.4738190097145589</v>
+        <v>0.4707177091541533</v>
       </c>
       <c r="R3">
-        <v>0.5112234785476386</v>
+        <v>0.5099111628862482</v>
       </c>
       <c r="S3">
-        <v>0.5112234785476386</v>
+        <v>0.5099111628862482</v>
       </c>
       <c r="T3">
-        <v>0.7096862327728719</v>
+        <v>0.6949657808090555</v>
       </c>
       <c r="U3">
-        <v>0.7096862327728719</v>
+        <v>0.697878992935571</v>
       </c>
       <c r="V3">
-        <v>0.7995340973474294</v>
+        <v>0.7845673938437201</v>
       </c>
       <c r="W3">
-        <v>0.7995340973474294</v>
+        <v>0.7845673938437201</v>
       </c>
       <c r="X3">
-        <v>0.8973445754780899</v>
+        <v>0.8784670728333785</v>
       </c>
       <c r="Y3">
-        <v>0.8973445754780899</v>
+        <v>0.8784670728333785</v>
       </c>
       <c r="Z3">
-        <v>0.9178185479434082</v>
+        <v>0.90232755624038</v>
       </c>
       <c r="AA3">
-        <v>0.9178185479434082</v>
+        <v>0.90232755624038</v>
       </c>
       <c r="AB3">
-        <v>0.9691198910338866</v>
+        <v>0.9541066043916667</v>
       </c>
       <c r="AC3">
-        <v>0.9920699182070877</v>
+        <v>0.9802095071899605</v>
       </c>
       <c r="AD3">
-        <v>0.9920699182070877</v>
+        <v>0.9840510836396715</v>
       </c>
       <c r="AE3">
-        <v>1</v>
+        <v>0.9965512915258999</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>0.9965512915258999</v>
       </c>
       <c r="AG3">
-        <v>1</v>
+        <v>0.9965512915258999</v>
       </c>
       <c r="AH3">
         <v>1</v>
@@ -2132,103 +2132,103 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.05652261696613039</v>
+        <v>0.05678798442086321</v>
       </c>
       <c r="E4">
-        <v>0.07923977235044945</v>
+        <v>0.08107512446522211</v>
       </c>
       <c r="F4">
-        <v>0.2449934210817245</v>
+        <v>0.2428787069098691</v>
       </c>
       <c r="G4">
-        <v>0.340629686744252</v>
+        <v>0.3372708697621498</v>
       </c>
       <c r="H4">
-        <v>0.340629686744252</v>
+        <v>0.3386176651448661</v>
       </c>
       <c r="I4">
-        <v>0.340629686744252</v>
+        <v>0.3386176651448661</v>
       </c>
       <c r="J4">
-        <v>0.340629686744252</v>
+        <v>0.3386176651448661</v>
       </c>
       <c r="K4">
-        <v>0.3665170898164731</v>
+        <v>0.3659527069754534</v>
       </c>
       <c r="L4">
-        <v>0.3665170898164731</v>
+        <v>0.3659527069754534</v>
       </c>
       <c r="M4">
-        <v>0.4108394655122732</v>
+        <v>0.4110112806937526</v>
       </c>
       <c r="N4">
-        <v>0.4108394655122732</v>
+        <v>0.4121878683730453</v>
       </c>
       <c r="O4">
-        <v>0.5857937574056324</v>
+        <v>0.5828370236210979</v>
       </c>
       <c r="P4">
-        <v>0.5857937574056324</v>
+        <v>0.5828370236210979</v>
       </c>
       <c r="Q4">
-        <v>0.5857937574056324</v>
+        <v>0.5828370236210979</v>
       </c>
       <c r="R4">
-        <v>0.6212621267749836</v>
+        <v>0.6193832839953508</v>
       </c>
       <c r="S4">
-        <v>0.6212621267749836</v>
+        <v>0.6195740318474755</v>
       </c>
       <c r="T4">
-        <v>0.7800127109649158</v>
+        <v>0.7746448113612712</v>
       </c>
       <c r="U4">
-        <v>0.7800127109649158</v>
+        <v>0.7746448113612712</v>
       </c>
       <c r="V4">
-        <v>0.863724061501162</v>
+        <v>0.8575722642942879</v>
       </c>
       <c r="W4">
-        <v>0.863724061501162</v>
+        <v>0.8575722642942879</v>
       </c>
       <c r="X4">
-        <v>0.9356943171863583</v>
+        <v>0.9292117336084369</v>
       </c>
       <c r="Y4">
-        <v>0.9356943171863583</v>
+        <v>0.9292117336084369</v>
       </c>
       <c r="Z4">
-        <v>0.9462734803939942</v>
+        <v>0.9418293097326906</v>
       </c>
       <c r="AA4">
-        <v>0.9462734803939942</v>
+        <v>0.9418293097326906</v>
       </c>
       <c r="AB4">
-        <v>0.9923849073934103</v>
+        <v>0.9886078918543567</v>
       </c>
       <c r="AC4">
-        <v>1</v>
+        <v>0.9983757865124238</v>
       </c>
       <c r="AD4">
-        <v>1</v>
+        <v>0.9983757865124238</v>
       </c>
       <c r="AE4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -2245,94 +2245,94 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1123365162505709</v>
+        <v>0.1073546664688817</v>
       </c>
       <c r="F5">
-        <v>0.1123365162505709</v>
+        <v>0.1073546664688817</v>
       </c>
       <c r="G5">
-        <v>0.1925708741185238</v>
+        <v>0.1852849475133928</v>
       </c>
       <c r="H5">
-        <v>0.2474421423467147</v>
+        <v>0.2399677784575609</v>
       </c>
       <c r="I5">
-        <v>0.2560018829044744</v>
+        <v>0.2522021165768972</v>
       </c>
       <c r="J5">
-        <v>0.2560018829044744</v>
+        <v>0.2522021165768972</v>
       </c>
       <c r="K5">
-        <v>0.2560018829044744</v>
+        <v>0.2522021165768972</v>
       </c>
       <c r="L5">
-        <v>0.306516067726792</v>
+        <v>0.3028913063480168</v>
       </c>
       <c r="M5">
-        <v>0.306516067726792</v>
+        <v>0.3028913063480168</v>
       </c>
       <c r="N5">
-        <v>0.3548424131915891</v>
+        <v>0.3515751534336071</v>
       </c>
       <c r="O5">
-        <v>0.4045576658932088</v>
+        <v>0.4015320532955207</v>
       </c>
       <c r="P5">
-        <v>0.5564826065646898</v>
+        <v>0.5451729110111303</v>
       </c>
       <c r="Q5">
-        <v>0.5564826065646898</v>
+        <v>0.5451729110111303</v>
       </c>
       <c r="R5">
-        <v>0.5564826065646898</v>
+        <v>0.5451729110111303</v>
       </c>
       <c r="S5">
-        <v>0.5954261684935401</v>
+        <v>0.5852566310951471</v>
       </c>
       <c r="T5">
-        <v>0.6477838681658964</v>
+        <v>0.6376355605665252</v>
       </c>
       <c r="U5">
-        <v>0.8058140204642417</v>
+        <v>0.7868723691171251</v>
       </c>
       <c r="V5">
-        <v>0.8178655931650655</v>
+        <v>0.8023072713103823</v>
       </c>
       <c r="W5">
-        <v>0.8674216739963251</v>
+        <v>0.8521182764817778</v>
       </c>
       <c r="X5">
-        <v>0.901404667334705</v>
+        <v>0.887655209387489</v>
       </c>
       <c r="Y5">
-        <v>0.9474974306904611</v>
+        <v>0.9342917866269187</v>
       </c>
       <c r="Z5">
-        <v>0.9476150438867491</v>
+        <v>0.9387881899219079</v>
       </c>
       <c r="AA5">
-        <v>0.9476150438867491</v>
+        <v>0.9387881899219079</v>
       </c>
       <c r="AB5">
-        <v>0.9610158882446561</v>
+        <v>0.9554598154783422</v>
       </c>
       <c r="AC5">
-        <v>0.9985441715341488</v>
+        <v>0.9942463111305624</v>
       </c>
       <c r="AD5">
-        <v>0.9985441715341488</v>
+        <v>0.9942463111305624</v>
       </c>
       <c r="AE5">
-        <v>1</v>
+        <v>0.9999693036599296</v>
       </c>
       <c r="AF5">
-        <v>1</v>
+        <v>0.9999693036599296</v>
       </c>
       <c r="AG5">
-        <v>1</v>
+        <v>0.9999693036599296</v>
       </c>
       <c r="AH5">
-        <v>1</v>
+        <v>0.9999693036599296</v>
       </c>
       <c r="AI5">
         <v>1</v>
@@ -2355,94 +2355,94 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.160701448128282</v>
+        <v>0.1437771502484968</v>
       </c>
       <c r="F6">
-        <v>0.179250341337648</v>
+        <v>0.1670833839930488</v>
       </c>
       <c r="G6">
-        <v>0.419850322642134</v>
+        <v>0.3785726448296985</v>
       </c>
       <c r="H6">
-        <v>0.419850322642134</v>
+        <v>0.3785726448296985</v>
       </c>
       <c r="I6">
-        <v>0.419850322642134</v>
+        <v>0.3826364802925018</v>
       </c>
       <c r="J6">
-        <v>0.419850322642134</v>
+        <v>0.3826364802925018</v>
       </c>
       <c r="K6">
-        <v>0.419850322642134</v>
+        <v>0.3826364802925018</v>
       </c>
       <c r="L6">
-        <v>0.454485916178379</v>
+        <v>0.4195758107690039</v>
       </c>
       <c r="M6">
-        <v>0.4851558840200837</v>
+        <v>0.4531543675879001</v>
       </c>
       <c r="N6">
-        <v>0.4851558840200837</v>
+        <v>0.458694557336003</v>
       </c>
       <c r="O6">
-        <v>0.6084670543501907</v>
+        <v>0.5707843345559067</v>
       </c>
       <c r="P6">
-        <v>0.619371729326313</v>
+        <v>0.5876122747724928</v>
       </c>
       <c r="Q6">
-        <v>0.6291406539475008</v>
+        <v>0.6034776935187002</v>
       </c>
       <c r="R6">
-        <v>0.6362908777710485</v>
+        <v>0.6171238254900673</v>
       </c>
       <c r="S6">
-        <v>0.6362908777710485</v>
+        <v>0.6186088156791756</v>
       </c>
       <c r="T6">
-        <v>0.7554670992911464</v>
+        <v>0.7271943219197584</v>
       </c>
       <c r="U6">
-        <v>0.7787546545851683</v>
+        <v>0.754516459315614</v>
       </c>
       <c r="V6">
-        <v>0.8533595794306199</v>
+        <v>0.8253288494611208</v>
       </c>
       <c r="W6">
-        <v>0.8533595794306199</v>
+        <v>0.8318042286515411</v>
       </c>
       <c r="X6">
-        <v>0.9285997803213272</v>
+        <v>0.9031550001680239</v>
       </c>
       <c r="Y6">
-        <v>0.9285997803213272</v>
+        <v>0.906861598502013</v>
       </c>
       <c r="Z6">
-        <v>0.9510125788101301</v>
+        <v>0.9334424002665609</v>
       </c>
       <c r="AA6">
-        <v>0.9510125788101301</v>
+        <v>0.9334424002665609</v>
       </c>
       <c r="AB6">
-        <v>0.965291860834499</v>
+        <v>0.9531302398650106</v>
       </c>
       <c r="AC6">
-        <v>0.988294188252956</v>
+        <v>0.9802106534058049</v>
       </c>
       <c r="AD6">
-        <v>0.988294188252956</v>
+        <v>0.9802106534058049</v>
       </c>
       <c r="AE6">
-        <v>1</v>
+        <v>0.9977175380218991</v>
       </c>
       <c r="AF6">
-        <v>1</v>
+        <v>0.9977175380218991</v>
       </c>
       <c r="AG6">
-        <v>1</v>
+        <v>0.9977175380218991</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>0.9988304940450929</v>
       </c>
       <c r="AI6">
         <v>1</v>
@@ -2465,100 +2465,100 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.08457144122612088</v>
+        <v>0.07942997222424276</v>
       </c>
       <c r="F7">
-        <v>0.08457144122612088</v>
+        <v>0.08213563188518273</v>
       </c>
       <c r="G7">
-        <v>0.251138568333221</v>
+        <v>0.2309413080407581</v>
       </c>
       <c r="H7">
-        <v>0.3340094260920591</v>
+        <v>0.3089324341370718</v>
       </c>
       <c r="I7">
-        <v>0.3340094260920591</v>
+        <v>0.3089324341370718</v>
       </c>
       <c r="J7">
-        <v>0.3340094260920591</v>
+        <v>0.3089324341370718</v>
       </c>
       <c r="K7">
-        <v>0.342194646156082</v>
+        <v>0.3237328126596745</v>
       </c>
       <c r="L7">
-        <v>0.3609171284492259</v>
+        <v>0.3474486600487177</v>
       </c>
       <c r="M7">
-        <v>0.3609171284492259</v>
+        <v>0.3474486600487177</v>
       </c>
       <c r="N7">
-        <v>0.3955464208756126</v>
+        <v>0.3846230953919811</v>
       </c>
       <c r="O7">
-        <v>0.429771802434678</v>
+        <v>0.421455785917272</v>
       </c>
       <c r="P7">
-        <v>0.5627046215444408</v>
+        <v>0.5418038210581044</v>
       </c>
       <c r="Q7">
-        <v>0.5627046215444408</v>
+        <v>0.5429551213434937</v>
       </c>
       <c r="R7">
-        <v>0.5627046215444408</v>
+        <v>0.5429551213434937</v>
       </c>
       <c r="S7">
-        <v>0.6501100189868538</v>
+        <v>0.6247828746863825</v>
       </c>
       <c r="T7">
-        <v>0.6524654484036151</v>
+        <v>0.6346507274842397</v>
       </c>
       <c r="U7">
-        <v>0.8483853304615607</v>
+        <v>0.8082914667917314</v>
       </c>
       <c r="V7">
-        <v>0.8483853304615607</v>
+        <v>0.8082914667917314</v>
       </c>
       <c r="W7">
-        <v>0.919110104529831</v>
+        <v>0.8760059167801685</v>
       </c>
       <c r="X7">
-        <v>0.9226933882731684</v>
+        <v>0.8869126444568211</v>
       </c>
       <c r="Y7">
-        <v>0.9666619023456913</v>
+        <v>0.9319888988886146</v>
       </c>
       <c r="Z7">
-        <v>0.9666619023456913</v>
+        <v>0.9334918793825293</v>
       </c>
       <c r="AA7">
-        <v>0.9710227066619284</v>
+        <v>0.9450564591947724</v>
       </c>
       <c r="AB7">
-        <v>0.9710227066619284</v>
+        <v>0.9458924315038139</v>
       </c>
       <c r="AC7">
-        <v>0.9884409539886411</v>
+        <v>0.9685047791426463</v>
       </c>
       <c r="AD7">
-        <v>0.9971123099619544</v>
+        <v>0.9837164722429729</v>
       </c>
       <c r="AE7">
-        <v>0.9971123099619544</v>
+        <v>0.9837164722429729</v>
       </c>
       <c r="AF7">
-        <v>0.9999999999999998</v>
+        <v>0.9940346652615352</v>
       </c>
       <c r="AG7">
-        <v>0.9999999999999998</v>
+        <v>0.9954789495950446</v>
       </c>
       <c r="AH7">
-        <v>0.9999999999999998</v>
+        <v>0.9954789495950446</v>
       </c>
       <c r="AI7">
-        <v>0.9999999999999998</v>
+        <v>0.9973718562867718</v>
       </c>
       <c r="AJ7">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -2575,82 +2575,82 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1728809280572238</v>
+        <v>0.171915518970356</v>
       </c>
       <c r="F8">
-        <v>0.1728809280572238</v>
+        <v>0.171915518970356</v>
       </c>
       <c r="G8">
-        <v>0.4015682464549488</v>
+        <v>0.3991893926224856</v>
       </c>
       <c r="H8">
-        <v>0.4440630601342153</v>
+        <v>0.4417655882416437</v>
       </c>
       <c r="I8">
-        <v>0.4440630601342153</v>
+        <v>0.4417655882416437</v>
       </c>
       <c r="J8">
-        <v>0.4440630601342153</v>
+        <v>0.4417655882416437</v>
       </c>
       <c r="K8">
-        <v>0.4440630601342153</v>
+        <v>0.4417655882416437</v>
       </c>
       <c r="L8">
-        <v>0.4626829275490978</v>
+        <v>0.4606585150586474</v>
       </c>
       <c r="M8">
-        <v>0.4626829275490978</v>
+        <v>0.4606585150586474</v>
       </c>
       <c r="N8">
-        <v>0.4697264112425146</v>
+        <v>0.4680679979174397</v>
       </c>
       <c r="O8">
-        <v>0.5390181656030486</v>
+        <v>0.537225997834796</v>
       </c>
       <c r="P8">
-        <v>0.6287356402733428</v>
+        <v>0.6266457323427477</v>
       </c>
       <c r="Q8">
-        <v>0.6308070577919782</v>
+        <v>0.6291230667302735</v>
       </c>
       <c r="R8">
-        <v>0.6308070577919782</v>
+        <v>0.6291230667302735</v>
       </c>
       <c r="S8">
-        <v>0.6822980509294869</v>
+        <v>0.6806232169394283</v>
       </c>
       <c r="T8">
-        <v>0.7335105700284744</v>
+        <v>0.7318471288092089</v>
       </c>
       <c r="U8">
-        <v>0.8601160548480066</v>
+        <v>0.8578587220073</v>
       </c>
       <c r="V8">
-        <v>0.8763025212852604</v>
+        <v>0.8743377841471471</v>
       </c>
       <c r="W8">
-        <v>0.9142350912514613</v>
+        <v>0.912388363540787</v>
       </c>
       <c r="X8">
-        <v>0.9398578322138871</v>
+        <v>0.9382279420812073</v>
       </c>
       <c r="Y8">
-        <v>0.9667962194679218</v>
+        <v>0.9653726043871653</v>
       </c>
       <c r="Z8">
-        <v>0.9691973049033474</v>
+        <v>0.9681769599877373</v>
       </c>
       <c r="AA8">
-        <v>0.9691973049033474</v>
+        <v>0.9681769599877373</v>
       </c>
       <c r="AB8">
-        <v>0.9696953703054095</v>
+        <v>0.9690935737485187</v>
       </c>
       <c r="AC8">
-        <v>0.9980358164936942</v>
+        <v>0.9976290387079612</v>
       </c>
       <c r="AD8">
-        <v>0.9980358164936942</v>
+        <v>0.9976290387079612</v>
       </c>
       <c r="AE8">
         <v>1</v>
@@ -2682,103 +2682,103 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0498952464202236</v>
+        <v>0.0482312761539142</v>
       </c>
       <c r="E9">
-        <v>0.07327490037467957</v>
+        <v>0.06594773271290499</v>
       </c>
       <c r="F9">
-        <v>0.1962511257663696</v>
+        <v>0.1982824620336209</v>
       </c>
       <c r="G9">
-        <v>0.3372861303682382</v>
+        <v>0.3513996947215381</v>
       </c>
       <c r="H9">
-        <v>0.3372861303682382</v>
+        <v>0.3513996947215381</v>
       </c>
       <c r="I9">
-        <v>0.3372861303682382</v>
+        <v>0.3513996947215381</v>
       </c>
       <c r="J9">
-        <v>0.3513632556820509</v>
+        <v>0.3584105642334994</v>
       </c>
       <c r="K9">
-        <v>0.3570824344837595</v>
+        <v>0.3584105642334994</v>
       </c>
       <c r="L9">
-        <v>0.3650675244757981</v>
+        <v>0.3584105642334994</v>
       </c>
       <c r="M9">
-        <v>0.3834522755424579</v>
+        <v>0.3703787592474374</v>
       </c>
       <c r="N9">
-        <v>0.3890152680064369</v>
+        <v>0.3703787592474374</v>
       </c>
       <c r="O9">
-        <v>0.5601811500595579</v>
+        <v>0.5581713736319445</v>
       </c>
       <c r="P9">
-        <v>0.5601811500595579</v>
+        <v>0.5581713736319445</v>
       </c>
       <c r="Q9">
-        <v>0.5601811500595579</v>
+        <v>0.5581713736319445</v>
       </c>
       <c r="R9">
-        <v>0.6194580029348054</v>
+        <v>0.6171992415970812</v>
       </c>
       <c r="S9">
-        <v>0.6194580029348054</v>
+        <v>0.6171992415970812</v>
       </c>
       <c r="T9">
-        <v>0.7846309899726048</v>
+        <v>0.7980950796610159</v>
       </c>
       <c r="U9">
-        <v>0.7846309899726048</v>
+        <v>0.7980950796610159</v>
       </c>
       <c r="V9">
-        <v>0.8677005562085548</v>
+        <v>0.8845042085507534</v>
       </c>
       <c r="W9">
-        <v>0.8677005562085548</v>
+        <v>0.8845042085507534</v>
       </c>
       <c r="X9">
-        <v>0.9344781904230703</v>
+        <v>0.9521641668485588</v>
       </c>
       <c r="Y9">
-        <v>0.9344781904230703</v>
+        <v>0.9521641668485588</v>
       </c>
       <c r="Z9">
-        <v>0.9499342578843142</v>
+        <v>0.9607619581279676</v>
       </c>
       <c r="AA9">
-        <v>0.9499342578843142</v>
+        <v>0.9607619581279676</v>
       </c>
       <c r="AB9">
-        <v>0.9845943967537338</v>
+        <v>0.9914602842253356</v>
       </c>
       <c r="AC9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AD9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AE9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AF9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AG9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AH9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AI9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AJ9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:36">
@@ -2795,94 +2795,94 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1343147580464003</v>
+        <v>0.1306499020368805</v>
       </c>
       <c r="F10">
-        <v>0.1343147580464003</v>
+        <v>0.1306499020368805</v>
       </c>
       <c r="G10">
-        <v>0.3492942088130792</v>
+        <v>0.3384522086412837</v>
       </c>
       <c r="H10">
-        <v>0.3492942088130792</v>
+        <v>0.3384522086412837</v>
       </c>
       <c r="I10">
-        <v>0.3492942088130792</v>
+        <v>0.3384522086412837</v>
       </c>
       <c r="J10">
-        <v>0.3612274337427777</v>
+        <v>0.3520492931913903</v>
       </c>
       <c r="K10">
-        <v>0.3612274337427777</v>
+        <v>0.3520492931913903</v>
       </c>
       <c r="L10">
-        <v>0.3971323060471288</v>
+        <v>0.3885742557762231</v>
       </c>
       <c r="M10">
-        <v>0.3971323060471288</v>
+        <v>0.3885742557762231</v>
       </c>
       <c r="N10">
-        <v>0.3971323060471288</v>
+        <v>0.390630456644582</v>
       </c>
       <c r="O10">
-        <v>0.5037503732735276</v>
+        <v>0.4947896324012995</v>
       </c>
       <c r="P10">
-        <v>0.5647992841822801</v>
+        <v>0.5553638161936717</v>
       </c>
       <c r="Q10">
-        <v>0.577542775436852</v>
+        <v>0.5697358865919345</v>
       </c>
       <c r="R10">
-        <v>0.577542775436852</v>
+        <v>0.5697358865919345</v>
       </c>
       <c r="S10">
-        <v>0.6069341869869728</v>
+        <v>0.6000309964084974</v>
       </c>
       <c r="T10">
-        <v>0.6891114397176725</v>
+        <v>0.6808135554033947</v>
       </c>
       <c r="U10">
-        <v>0.802757301002289</v>
+        <v>0.7916945222202614</v>
       </c>
       <c r="V10">
-        <v>0.8257421721397118</v>
+        <v>0.815862044102997</v>
       </c>
       <c r="W10">
-        <v>0.8425967266164419</v>
+        <v>0.8341661745168913</v>
       </c>
       <c r="X10">
-        <v>0.8990722237886969</v>
+        <v>0.89036607936573</v>
       </c>
       <c r="Y10">
-        <v>0.9238269975053375</v>
+        <v>0.9162264390345145</v>
       </c>
       <c r="Z10">
-        <v>0.932426960366788</v>
+        <v>0.9266353978390632</v>
       </c>
       <c r="AA10">
-        <v>0.932426960366788</v>
+        <v>0.9266353978390632</v>
       </c>
       <c r="AB10">
-        <v>0.9542807511253175</v>
+        <v>0.9497210886498902</v>
       </c>
       <c r="AC10">
-        <v>0.9913331578151431</v>
+        <v>0.987343619875693</v>
       </c>
       <c r="AD10">
-        <v>0.9913331578151431</v>
+        <v>0.987343619875693</v>
       </c>
       <c r="AE10">
-        <v>0.9967365256651569</v>
+        <v>0.9946951692580536</v>
       </c>
       <c r="AF10">
-        <v>0.9967365256651569</v>
+        <v>0.9946951692580536</v>
       </c>
       <c r="AG10">
-        <v>0.9967365256651569</v>
+        <v>0.9946951692580536</v>
       </c>
       <c r="AH10">
-        <v>0.9967365256651569</v>
+        <v>0.9946951692580536</v>
       </c>
       <c r="AI10">
         <v>1</v>
@@ -2905,100 +2905,100 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1771507151145562</v>
+        <v>0.1631414710949198</v>
       </c>
       <c r="F11">
-        <v>0.1771507151145562</v>
+        <v>0.1631414710949198</v>
       </c>
       <c r="G11">
-        <v>0.3873205804382487</v>
+        <v>0.3556354794920083</v>
       </c>
       <c r="H11">
-        <v>0.4232073706674744</v>
+        <v>0.3931996841102126</v>
       </c>
       <c r="I11">
-        <v>0.4232073706674744</v>
+        <v>0.3978403213551752</v>
       </c>
       <c r="J11">
-        <v>0.4232073706674744</v>
+        <v>0.3978403213551752</v>
       </c>
       <c r="K11">
-        <v>0.4232073706674744</v>
+        <v>0.3978403213551752</v>
       </c>
       <c r="L11">
-        <v>0.4485194593893792</v>
+        <v>0.4260040926343334</v>
       </c>
       <c r="M11">
-        <v>0.4485194593893792</v>
+        <v>0.4260040926343334</v>
       </c>
       <c r="N11">
-        <v>0.4485194593893792</v>
+        <v>0.4306132931120498</v>
       </c>
       <c r="O11">
-        <v>0.5226681090105357</v>
+        <v>0.5021905673561716</v>
       </c>
       <c r="P11">
-        <v>0.6150419408335948</v>
+        <v>0.5899692076873025</v>
       </c>
       <c r="Q11">
-        <v>0.6150419408335948</v>
+        <v>0.5927038863775443</v>
       </c>
       <c r="R11">
-        <v>0.6150419408335948</v>
+        <v>0.5927038863775443</v>
       </c>
       <c r="S11">
-        <v>0.664824552850475</v>
+        <v>0.6426208506756013</v>
       </c>
       <c r="T11">
-        <v>0.7047141919387978</v>
+        <v>0.68374340763502</v>
       </c>
       <c r="U11">
-        <v>0.8260004373364515</v>
+        <v>0.7972238813740014</v>
       </c>
       <c r="V11">
-        <v>0.8404609824065976</v>
+        <v>0.8157411191171081</v>
       </c>
       <c r="W11">
-        <v>0.8794747070193819</v>
+        <v>0.8560850275603201</v>
       </c>
       <c r="X11">
-        <v>0.9064905515677461</v>
+        <v>0.8857633610293949</v>
       </c>
       <c r="Y11">
-        <v>0.9415463577001304</v>
+        <v>0.9225888582143202</v>
       </c>
       <c r="Z11">
-        <v>0.9415463577001304</v>
+        <v>0.9270984692838428</v>
       </c>
       <c r="AA11">
-        <v>0.9415463577001304</v>
+        <v>0.9270984692838428</v>
       </c>
       <c r="AB11">
-        <v>0.9499371697564922</v>
+        <v>0.9402199877678871</v>
       </c>
       <c r="AC11">
-        <v>0.9988261623628023</v>
+        <v>0.9893425646599517</v>
       </c>
       <c r="AD11">
-        <v>0.9999999999999999</v>
+        <v>0.9960485179490838</v>
       </c>
       <c r="AE11">
-        <v>0.9999999999999999</v>
+        <v>0.9984999369793133</v>
       </c>
       <c r="AF11">
-        <v>0.9999999999999999</v>
+        <v>0.9990496632287545</v>
       </c>
       <c r="AG11">
-        <v>0.9999999999999999</v>
+        <v>0.9990496632287545</v>
       </c>
       <c r="AH11">
-        <v>0.9999999999999999</v>
+        <v>0.9990496632287545</v>
       </c>
       <c r="AI11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3072,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.557005267552206</v>
+        <v>0.5577428032774518</v>
       </c>
       <c r="G2">
         <v>15</v>
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5112234785476386</v>
+        <v>0.5099111628862482</v>
       </c>
       <c r="G3">
         <v>16</v>
@@ -3154,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5857937574056324</v>
+        <v>0.5828370236210979</v>
       </c>
       <c r="G4">
         <v>13</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5564826065646898</v>
+        <v>0.5451729110111303</v>
       </c>
       <c r="G5">
         <v>13</v>
@@ -3236,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6084670543501907</v>
+        <v>0.5707843345559067</v>
       </c>
       <c r="G6">
         <v>12</v>
@@ -3277,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5627046215444408</v>
+        <v>0.5418038210581044</v>
       </c>
       <c r="G7">
         <v>13</v>
@@ -3318,7 +3318,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5390181656030486</v>
+        <v>0.537225997834796</v>
       </c>
       <c r="G8">
         <v>12</v>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5601811500595579</v>
+        <v>0.5581713736319445</v>
       </c>
       <c r="G9">
         <v>12</v>
@@ -3394,16 +3394,16 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5037503732735276</v>
+        <v>0.5553638161936717</v>
       </c>
       <c r="G10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H10">
         <v>34</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5226681090105357</v>
+        <v>0.5021905673561716</v>
       </c>
       <c r="G11">
         <v>12</v>
@@ -3536,7 +3536,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8138090062000666</v>
+        <v>0.7844552369142017</v>
       </c>
       <c r="G2">
         <v>17</v>
@@ -3571,16 +3571,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7096862327728719</v>
+        <v>0.7845673938437201</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H3">
         <v>34</v>
@@ -3618,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7800127109649158</v>
+        <v>0.7746448113612712</v>
       </c>
       <c r="G4">
         <v>18</v>
@@ -3659,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8058140204642417</v>
+        <v>0.7868723691171251</v>
       </c>
       <c r="G5">
         <v>18</v>
@@ -3700,7 +3700,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7554670992911464</v>
+        <v>0.7271943219197584</v>
       </c>
       <c r="G6">
         <v>17</v>
@@ -3741,7 +3741,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8483853304615607</v>
+        <v>0.8082914667917314</v>
       </c>
       <c r="G7">
         <v>18</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7335105700284744</v>
+        <v>0.7318471288092089</v>
       </c>
       <c r="G8">
         <v>17</v>
@@ -3823,7 +3823,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7846309899726048</v>
+        <v>0.7980950796610159</v>
       </c>
       <c r="G9">
         <v>17</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.802757301002289</v>
+        <v>0.7916945222202614</v>
       </c>
       <c r="G10">
         <v>18</v>
@@ -3899,16 +3899,16 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7047141919387978</v>
+        <v>0.7972238813740014</v>
       </c>
       <c r="G11">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H11">
         <v>34</v>
@@ -3994,16 +3994,16 @@
         <v>2</v>
       </c>
       <c r="D2">
+        <v>21</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.8714276585230173</v>
+      </c>
+      <c r="G2">
         <v>19</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.8138090062000666</v>
-      </c>
-      <c r="G2">
-        <v>17</v>
       </c>
       <c r="H2">
         <v>34</v>
@@ -4041,7 +4041,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8973445754780899</v>
+        <v>0.8784670728333785</v>
       </c>
       <c r="G3">
         <v>22</v>
@@ -4082,7 +4082,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.863724061501162</v>
+        <v>0.8575722642942879</v>
       </c>
       <c r="G4">
         <v>20</v>
@@ -4117,16 +4117,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8058140204642417</v>
+        <v>0.8023072713103823</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5">
         <v>34</v>
@@ -4164,7 +4164,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8533595794306199</v>
+        <v>0.8253288494611208</v>
       </c>
       <c r="G6">
         <v>19</v>
@@ -4205,7 +4205,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8483853304615607</v>
+        <v>0.8082914667917314</v>
       </c>
       <c r="G7">
         <v>18</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8601160548480066</v>
+        <v>0.8578587220073</v>
       </c>
       <c r="G8">
         <v>18</v>
@@ -4287,7 +4287,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8677005562085548</v>
+        <v>0.8845042085507534</v>
       </c>
       <c r="G9">
         <v>19</v>
@@ -4322,16 +4322,16 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.802757301002289</v>
+        <v>0.815862044102997</v>
       </c>
       <c r="G10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H10">
         <v>34</v>
@@ -4363,16 +4363,16 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8260004373364515</v>
+        <v>0.8157411191171081</v>
       </c>
       <c r="G11">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H11">
         <v>34</v>
@@ -4458,16 +4458,16 @@
         <v>2</v>
       </c>
       <c r="D2">
+        <v>23</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.9351641465870453</v>
+      </c>
+      <c r="G2">
         <v>21</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.9031130045223079</v>
-      </c>
-      <c r="G2">
-        <v>19</v>
       </c>
       <c r="H2">
         <v>34</v>
@@ -4505,7 +4505,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9178185479434082</v>
+        <v>0.90232755624038</v>
       </c>
       <c r="G3">
         <v>24</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9356943171863583</v>
+        <v>0.9292117336084369</v>
       </c>
       <c r="G4">
         <v>22</v>
@@ -4581,16 +4581,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.901404667334705</v>
+        <v>0.9342917866269187</v>
       </c>
       <c r="G5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5">
         <v>34</v>
@@ -4628,7 +4628,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9285997803213272</v>
+        <v>0.9031550001680239</v>
       </c>
       <c r="G6">
         <v>21</v>
@@ -4663,16 +4663,16 @@
         <v>2</v>
       </c>
       <c r="D7">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0.9319888988886146</v>
+      </c>
+      <c r="G7">
         <v>22</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.919110104529831</v>
-      </c>
-      <c r="G7">
-        <v>20</v>
       </c>
       <c r="H7">
         <v>34</v>
@@ -4710,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9142350912514613</v>
+        <v>0.912388363540787</v>
       </c>
       <c r="G8">
         <v>20</v>
@@ -4751,7 +4751,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9344781904230703</v>
+        <v>0.9521641668485588</v>
       </c>
       <c r="G9">
         <v>21</v>
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9238269975053375</v>
+        <v>0.9162264390345145</v>
       </c>
       <c r="G10">
         <v>22</v>
@@ -4827,16 +4827,16 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9064905515677461</v>
+        <v>0.9225888582143202</v>
       </c>
       <c r="G11">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H11">
         <v>34</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/34_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/34_11R22.xlsx
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.07793028104451112</v>
+        <v>0.07793028104451113</v>
       </c>
       <c r="H5">
         <v>0.05468283094416811</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.05068918977111965</v>
+        <v>0.05068918977111964</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -1055,7 +1055,7 @@
         <v>0.04995689986191362</v>
       </c>
       <c r="P5">
-        <v>0.1436408577156097</v>
+        <v>0.1436408577156096</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1064,22 +1064,22 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.04008372008401682</v>
+        <v>0.04008372008401681</v>
       </c>
       <c r="T5">
-        <v>0.05237892947137797</v>
+        <v>0.05237892947137796</v>
       </c>
       <c r="U5">
-        <v>0.1492368085505999</v>
+        <v>0.1492368085505998</v>
       </c>
       <c r="V5">
-        <v>0.01543490219325717</v>
+        <v>0.01543490219325716</v>
       </c>
       <c r="W5">
-        <v>0.04981100517139557</v>
+        <v>0.04981100517139556</v>
       </c>
       <c r="X5">
-        <v>0.03553693290571114</v>
+        <v>0.03553693290571113</v>
       </c>
       <c r="Y5">
         <v>0.04663657723942972</v>
@@ -1094,13 +1094,13 @@
         <v>0.0166716255564343</v>
       </c>
       <c r="AC5">
-        <v>0.03878649565222017</v>
+        <v>0.03878649565222016</v>
       </c>
       <c r="AD5">
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.005722992529367206</v>
+        <v>0.005722992529367208</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>3.069634007033281E-05</v>
+        <v>3.069634007033288E-05</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0.03357855681889624</v>
       </c>
       <c r="N6">
-        <v>0.005540189748102918</v>
+        <v>0.00554018974810292</v>
       </c>
       <c r="O6">
         <v>0.1120897772199037</v>
@@ -1180,13 +1180,13 @@
         <v>0.1085855062405828</v>
       </c>
       <c r="U6">
-        <v>0.02732213739585551</v>
+        <v>0.0273221373958555</v>
       </c>
       <c r="V6">
         <v>0.07081239014550691</v>
       </c>
       <c r="W6">
-        <v>0.006475379190420314</v>
+        <v>0.006475379190420315</v>
       </c>
       <c r="X6">
         <v>0.0713507715164827</v>
@@ -1587,19 +1587,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.01359708455010669</v>
+        <v>0.01359708455010668</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.03652496258483274</v>
+        <v>0.03652496258483273</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.002056200868358946</v>
+        <v>0.002056200868358947</v>
       </c>
       <c r="O10">
         <v>0.1041591757567175</v>
@@ -1617,7 +1617,7 @@
         <v>0.03029510981656293</v>
       </c>
       <c r="T10">
-        <v>0.08078255899489731</v>
+        <v>0.08078255899489728</v>
       </c>
       <c r="U10">
         <v>0.1108809668168667</v>
@@ -1626,13 +1626,13 @@
         <v>0.02416752188273563</v>
       </c>
       <c r="W10">
-        <v>0.01830413041389439</v>
+        <v>0.01830413041389438</v>
       </c>
       <c r="X10">
-        <v>0.05619990484883865</v>
+        <v>0.05619990484883864</v>
       </c>
       <c r="Y10">
-        <v>0.02586035966878453</v>
+        <v>0.02586035966878452</v>
       </c>
       <c r="Z10">
         <v>0.0104089588045487</v>
@@ -1641,10 +1641,10 @@
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.02308569081082702</v>
+        <v>0.02308569081082701</v>
       </c>
       <c r="AC10">
-        <v>0.03762253122580275</v>
+        <v>0.03762253122580273</v>
       </c>
       <c r="AD10">
         <v>0</v>
@@ -1694,7 +1694,7 @@
         <v>0.03756420461820427</v>
       </c>
       <c r="I11">
-        <v>0.004640637244962681</v>
+        <v>0.00464063724496268</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1709,13 +1709,13 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.004609200477716417</v>
+        <v>0.004609200477716416</v>
       </c>
       <c r="O11">
-        <v>0.07157727424412179</v>
+        <v>0.07157727424412176</v>
       </c>
       <c r="P11">
-        <v>0.08777864033113093</v>
+        <v>0.08777864033113095</v>
       </c>
       <c r="Q11">
         <v>0.002734678690241851</v>
@@ -1724,10 +1724,10 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.04991696429805696</v>
+        <v>0.04991696429805695</v>
       </c>
       <c r="T11">
-        <v>0.04112255695941864</v>
+        <v>0.04112255695941863</v>
       </c>
       <c r="U11">
         <v>0.1134804737389814</v>
@@ -1736,7 +1736,7 @@
         <v>0.01851723774310671</v>
       </c>
       <c r="W11">
-        <v>0.04034390844321196</v>
+        <v>0.04034390844321195</v>
       </c>
       <c r="X11">
         <v>0.02967833346907484</v>
@@ -1757,13 +1757,13 @@
         <v>0.04912257689206471</v>
       </c>
       <c r="AD11">
-        <v>0.006705953289132037</v>
+        <v>0.006705953289132038</v>
       </c>
       <c r="AE11">
-        <v>0.002451419030229451</v>
+        <v>0.00245141903022945</v>
       </c>
       <c r="AF11">
-        <v>0.0005497262494412238</v>
+        <v>0.0005497262494412235</v>
       </c>
       <c r="AG11">
         <v>0</v>
@@ -1772,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>0.0009503367712454924</v>
+        <v>0.0009503367712454917</v>
       </c>
       <c r="AJ11">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>0.1852849475133928</v>
       </c>
       <c r="H5">
-        <v>0.2399677784575609</v>
+        <v>0.239967778457561</v>
       </c>
       <c r="I5">
         <v>0.2522021165768972</v>
@@ -2266,10 +2266,10 @@
         <v>0.2522021165768972</v>
       </c>
       <c r="L5">
-        <v>0.3028913063480168</v>
+        <v>0.3028913063480169</v>
       </c>
       <c r="M5">
-        <v>0.3028913063480168</v>
+        <v>0.3028913063480169</v>
       </c>
       <c r="N5">
         <v>0.3515751534336071</v>
@@ -2293,52 +2293,52 @@
         <v>0.6376355605665252</v>
       </c>
       <c r="U5">
-        <v>0.7868723691171251</v>
+        <v>0.786872369117125</v>
       </c>
       <c r="V5">
-        <v>0.8023072713103823</v>
+        <v>0.8023072713103822</v>
       </c>
       <c r="W5">
-        <v>0.8521182764817778</v>
+        <v>0.8521182764817777</v>
       </c>
       <c r="X5">
-        <v>0.887655209387489</v>
+        <v>0.8876552093874889</v>
       </c>
       <c r="Y5">
-        <v>0.9342917866269187</v>
+        <v>0.9342917866269186</v>
       </c>
       <c r="Z5">
-        <v>0.9387881899219079</v>
+        <v>0.9387881899219078</v>
       </c>
       <c r="AA5">
-        <v>0.9387881899219079</v>
+        <v>0.9387881899219078</v>
       </c>
       <c r="AB5">
-        <v>0.9554598154783422</v>
+        <v>0.9554598154783421</v>
       </c>
       <c r="AC5">
-        <v>0.9942463111305624</v>
+        <v>0.9942463111305623</v>
       </c>
       <c r="AD5">
-        <v>0.9942463111305624</v>
+        <v>0.9942463111305623</v>
       </c>
       <c r="AE5">
-        <v>0.9999693036599296</v>
+        <v>0.9999693036599295</v>
       </c>
       <c r="AF5">
-        <v>0.9999693036599296</v>
+        <v>0.9999693036599295</v>
       </c>
       <c r="AG5">
-        <v>0.9999693036599296</v>
+        <v>0.9999693036599295</v>
       </c>
       <c r="AH5">
-        <v>0.9999693036599296</v>
+        <v>0.9999693036599295</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -2911,28 +2911,28 @@
         <v>0.1631414710949198</v>
       </c>
       <c r="G11">
-        <v>0.3556354794920083</v>
+        <v>0.3556354794920084</v>
       </c>
       <c r="H11">
         <v>0.3931996841102126</v>
       </c>
       <c r="I11">
-        <v>0.3978403213551752</v>
+        <v>0.3978403213551753</v>
       </c>
       <c r="J11">
-        <v>0.3978403213551752</v>
+        <v>0.3978403213551753</v>
       </c>
       <c r="K11">
-        <v>0.3978403213551752</v>
+        <v>0.3978403213551753</v>
       </c>
       <c r="L11">
-        <v>0.4260040926343334</v>
+        <v>0.4260040926343335</v>
       </c>
       <c r="M11">
-        <v>0.4260040926343334</v>
+        <v>0.4260040926343335</v>
       </c>
       <c r="N11">
-        <v>0.4306132931120498</v>
+        <v>0.4306132931120499</v>
       </c>
       <c r="O11">
         <v>0.5021905673561716</v>
@@ -2959,7 +2959,7 @@
         <v>0.8157411191171081</v>
       </c>
       <c r="W11">
-        <v>0.8560850275603201</v>
+        <v>0.85608502756032</v>
       </c>
       <c r="X11">
         <v>0.8857633610293949</v>
@@ -3659,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7868723691171251</v>
+        <v>0.786872369117125</v>
       </c>
       <c r="G5">
         <v>18</v>
@@ -4123,7 +4123,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8023072713103823</v>
+        <v>0.8023072713103822</v>
       </c>
       <c r="G5">
         <v>19</v>
@@ -4587,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9342917866269187</v>
+        <v>0.9342917866269186</v>
       </c>
       <c r="G5">
         <v>22</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/34_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/34_11R22.xlsx
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.07793028104451113</v>
+        <v>0.07793028104451112</v>
       </c>
       <c r="H5">
         <v>0.05468283094416811</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.05068918977111964</v>
+        <v>0.05068918977111965</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -1055,7 +1055,7 @@
         <v>0.04995689986191362</v>
       </c>
       <c r="P5">
-        <v>0.1436408577156096</v>
+        <v>0.1436408577156097</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1064,22 +1064,22 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.04008372008401681</v>
+        <v>0.04008372008401682</v>
       </c>
       <c r="T5">
-        <v>0.05237892947137796</v>
+        <v>0.05237892947137797</v>
       </c>
       <c r="U5">
-        <v>0.1492368085505998</v>
+        <v>0.1492368085505999</v>
       </c>
       <c r="V5">
-        <v>0.01543490219325716</v>
+        <v>0.01543490219325717</v>
       </c>
       <c r="W5">
-        <v>0.04981100517139556</v>
+        <v>0.04981100517139557</v>
       </c>
       <c r="X5">
-        <v>0.03553693290571113</v>
+        <v>0.03553693290571114</v>
       </c>
       <c r="Y5">
         <v>0.04663657723942972</v>
@@ -1094,13 +1094,13 @@
         <v>0.0166716255564343</v>
       </c>
       <c r="AC5">
-        <v>0.03878649565222016</v>
+        <v>0.03878649565222017</v>
       </c>
       <c r="AD5">
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.005722992529367208</v>
+        <v>0.005722992529367206</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>3.069634007033288E-05</v>
+        <v>3.069634007033281E-05</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0.03357855681889624</v>
       </c>
       <c r="N6">
-        <v>0.00554018974810292</v>
+        <v>0.005540189748102918</v>
       </c>
       <c r="O6">
         <v>0.1120897772199037</v>
@@ -1180,13 +1180,13 @@
         <v>0.1085855062405828</v>
       </c>
       <c r="U6">
-        <v>0.0273221373958555</v>
+        <v>0.02732213739585551</v>
       </c>
       <c r="V6">
         <v>0.07081239014550691</v>
       </c>
       <c r="W6">
-        <v>0.006475379190420315</v>
+        <v>0.006475379190420314</v>
       </c>
       <c r="X6">
         <v>0.0713507715164827</v>
@@ -1587,19 +1587,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.01359708455010668</v>
+        <v>0.01359708455010669</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.03652496258483273</v>
+        <v>0.03652496258483274</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.002056200868358947</v>
+        <v>0.002056200868358946</v>
       </c>
       <c r="O10">
         <v>0.1041591757567175</v>
@@ -1617,7 +1617,7 @@
         <v>0.03029510981656293</v>
       </c>
       <c r="T10">
-        <v>0.08078255899489728</v>
+        <v>0.08078255899489731</v>
       </c>
       <c r="U10">
         <v>0.1108809668168667</v>
@@ -1626,13 +1626,13 @@
         <v>0.02416752188273563</v>
       </c>
       <c r="W10">
-        <v>0.01830413041389438</v>
+        <v>0.01830413041389439</v>
       </c>
       <c r="X10">
-        <v>0.05619990484883864</v>
+        <v>0.05619990484883865</v>
       </c>
       <c r="Y10">
-        <v>0.02586035966878452</v>
+        <v>0.02586035966878453</v>
       </c>
       <c r="Z10">
         <v>0.0104089588045487</v>
@@ -1641,10 +1641,10 @@
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.02308569081082701</v>
+        <v>0.02308569081082702</v>
       </c>
       <c r="AC10">
-        <v>0.03762253122580273</v>
+        <v>0.03762253122580275</v>
       </c>
       <c r="AD10">
         <v>0</v>
@@ -1694,7 +1694,7 @@
         <v>0.03756420461820427</v>
       </c>
       <c r="I11">
-        <v>0.00464063724496268</v>
+        <v>0.004640637244962681</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1709,13 +1709,13 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.004609200477716416</v>
+        <v>0.004609200477716417</v>
       </c>
       <c r="O11">
-        <v>0.07157727424412176</v>
+        <v>0.07157727424412179</v>
       </c>
       <c r="P11">
-        <v>0.08777864033113095</v>
+        <v>0.08777864033113093</v>
       </c>
       <c r="Q11">
         <v>0.002734678690241851</v>
@@ -1724,10 +1724,10 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.04991696429805695</v>
+        <v>0.04991696429805696</v>
       </c>
       <c r="T11">
-        <v>0.04112255695941863</v>
+        <v>0.04112255695941864</v>
       </c>
       <c r="U11">
         <v>0.1134804737389814</v>
@@ -1736,7 +1736,7 @@
         <v>0.01851723774310671</v>
       </c>
       <c r="W11">
-        <v>0.04034390844321195</v>
+        <v>0.04034390844321196</v>
       </c>
       <c r="X11">
         <v>0.02967833346907484</v>
@@ -1757,13 +1757,13 @@
         <v>0.04912257689206471</v>
       </c>
       <c r="AD11">
-        <v>0.006705953289132038</v>
+        <v>0.006705953289132037</v>
       </c>
       <c r="AE11">
-        <v>0.00245141903022945</v>
+        <v>0.002451419030229451</v>
       </c>
       <c r="AF11">
-        <v>0.0005497262494412235</v>
+        <v>0.0005497262494412238</v>
       </c>
       <c r="AG11">
         <v>0</v>
@@ -1772,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>0.0009503367712454917</v>
+        <v>0.0009503367712454924</v>
       </c>
       <c r="AJ11">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>0.1852849475133928</v>
       </c>
       <c r="H5">
-        <v>0.239967778457561</v>
+        <v>0.2399677784575609</v>
       </c>
       <c r="I5">
         <v>0.2522021165768972</v>
@@ -2266,10 +2266,10 @@
         <v>0.2522021165768972</v>
       </c>
       <c r="L5">
-        <v>0.3028913063480169</v>
+        <v>0.3028913063480168</v>
       </c>
       <c r="M5">
-        <v>0.3028913063480169</v>
+        <v>0.3028913063480168</v>
       </c>
       <c r="N5">
         <v>0.3515751534336071</v>
@@ -2293,52 +2293,52 @@
         <v>0.6376355605665252</v>
       </c>
       <c r="U5">
-        <v>0.786872369117125</v>
+        <v>0.7868723691171251</v>
       </c>
       <c r="V5">
-        <v>0.8023072713103822</v>
+        <v>0.8023072713103823</v>
       </c>
       <c r="W5">
-        <v>0.8521182764817777</v>
+        <v>0.8521182764817778</v>
       </c>
       <c r="X5">
-        <v>0.8876552093874889</v>
+        <v>0.887655209387489</v>
       </c>
       <c r="Y5">
-        <v>0.9342917866269186</v>
+        <v>0.9342917866269187</v>
       </c>
       <c r="Z5">
-        <v>0.9387881899219078</v>
+        <v>0.9387881899219079</v>
       </c>
       <c r="AA5">
-        <v>0.9387881899219078</v>
+        <v>0.9387881899219079</v>
       </c>
       <c r="AB5">
-        <v>0.9554598154783421</v>
+        <v>0.9554598154783422</v>
       </c>
       <c r="AC5">
-        <v>0.9942463111305623</v>
+        <v>0.9942463111305624</v>
       </c>
       <c r="AD5">
-        <v>0.9942463111305623</v>
+        <v>0.9942463111305624</v>
       </c>
       <c r="AE5">
-        <v>0.9999693036599295</v>
+        <v>0.9999693036599296</v>
       </c>
       <c r="AF5">
-        <v>0.9999693036599295</v>
+        <v>0.9999693036599296</v>
       </c>
       <c r="AG5">
-        <v>0.9999693036599295</v>
+        <v>0.9999693036599296</v>
       </c>
       <c r="AH5">
-        <v>0.9999693036599295</v>
+        <v>0.9999693036599296</v>
       </c>
       <c r="AI5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ5">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -2911,28 +2911,28 @@
         <v>0.1631414710949198</v>
       </c>
       <c r="G11">
-        <v>0.3556354794920084</v>
+        <v>0.3556354794920083</v>
       </c>
       <c r="H11">
         <v>0.3931996841102126</v>
       </c>
       <c r="I11">
-        <v>0.3978403213551753</v>
+        <v>0.3978403213551752</v>
       </c>
       <c r="J11">
-        <v>0.3978403213551753</v>
+        <v>0.3978403213551752</v>
       </c>
       <c r="K11">
-        <v>0.3978403213551753</v>
+        <v>0.3978403213551752</v>
       </c>
       <c r="L11">
-        <v>0.4260040926343335</v>
+        <v>0.4260040926343334</v>
       </c>
       <c r="M11">
-        <v>0.4260040926343335</v>
+        <v>0.4260040926343334</v>
       </c>
       <c r="N11">
-        <v>0.4306132931120499</v>
+        <v>0.4306132931120498</v>
       </c>
       <c r="O11">
         <v>0.5021905673561716</v>
@@ -2959,7 +2959,7 @@
         <v>0.8157411191171081</v>
       </c>
       <c r="W11">
-        <v>0.85608502756032</v>
+        <v>0.8560850275603201</v>
       </c>
       <c r="X11">
         <v>0.8857633610293949</v>
@@ -3659,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.786872369117125</v>
+        <v>0.7868723691171251</v>
       </c>
       <c r="G5">
         <v>18</v>
@@ -4123,7 +4123,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8023072713103822</v>
+        <v>0.8023072713103823</v>
       </c>
       <c r="G5">
         <v>19</v>
@@ -4587,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9342917866269186</v>
+        <v>0.9342917866269187</v>
       </c>
       <c r="G5">
         <v>22</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/34_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/34_11R22.xlsx
@@ -159,40 +159,43 @@
     <t>signal segment 10</t>
   </si>
   <si>
+    <t>First_Noticeable_Increase_Cumulative_Value</t>
+  </si>
+  <si>
+    <t>First_Noticeable_Increase_Index</t>
+  </si>
+  <si>
     <t>Intensity_Threshold</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Index</t>
+    <t>Point_Exceeds_Cumulative_Value</t>
   </si>
   <si>
     <t>Point_Exceeds_Index</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Cumulative_Value</t>
-  </si>
-  <si>
-    <t>Point_Exceeds_Cumulative_Value</t>
+    <t>Pressure</t>
   </si>
   <si>
     <t>Pulse_Width</t>
   </si>
   <si>
+    <t>Rim</t>
+  </si>
+  <si>
+    <t>TireSize</t>
+  </si>
+  <si>
     <t>Tire_Number</t>
   </si>
   <si>
-    <t>Pressure</t>
-  </si>
-  <si>
-    <t>TireSize</t>
-  </si>
-  <si>
     <t>Tire_Type</t>
   </si>
   <si>
     <t>Wear</t>
   </si>
   <si>
-    <t>Rim</t>
+    <t>Ir</t>
   </si>
   <si>
     <t>11R22.5</t>
@@ -202,9 +205,6 @@
   </si>
   <si>
     <t>0%</t>
-  </si>
-  <si>
-    <t>Ir</t>
   </si>
 </sst>
 </file>
@@ -689,16 +689,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.04135734829800942</v>
+        <v>0.0196080366815155</v>
       </c>
       <c r="E2">
-        <v>0.02072078377087211</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0550497827930977</v>
+        <v>0.04227410263991128</v>
       </c>
       <c r="G2">
-        <v>0.1168782477956718</v>
+        <v>0.1446231820791754</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.02380231211301889</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.00819322069780005</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.0508423985052667</v>
+        <v>0.03530931856046182</v>
       </c>
       <c r="N2">
-        <v>0.01013093555561741</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.1409283616434324</v>
+        <v>0.1844350553421669</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -731,55 +731,55 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0.08983941210466539</v>
+        <v>0.09986386382715652</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0.2267124336367499</v>
+        <v>0.3264395640858673</v>
       </c>
       <c r="U2">
-        <v>0.002612633895459219</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.08435978771335638</v>
+        <v>0.09079304972720972</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0.06373648806402799</v>
+        <v>0.05665382705653563</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.01097170159797809</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.003592481191508053</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.02310101861516332</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.01838469421361165</v>
+        <v>0</v>
       </c>
       <c r="AD2">
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.004329687384365971</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.001356606006822658</v>
+        <v>0</v>
       </c>
       <c r="AG2">
         <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.003099664403504903</v>
+        <v>0</v>
       </c>
       <c r="AI2">
         <v>0</v>
@@ -799,16 +799,16 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.05993219647006445</v>
+        <v>0.05181097338657904</v>
       </c>
       <c r="E3">
-        <v>0.0219268943180344</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.1197953761291749</v>
+        <v>0.1502123271591191</v>
       </c>
       <c r="G3">
-        <v>0.09672318486324026</v>
+        <v>0.1122869301455406</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -820,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.01089820953235356</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.002679759276784008</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.02605848236800163</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.001698762190768015</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.1310048440057321</v>
+        <v>0.1686381244589652</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -841,46 +841,46 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0.03919345373209479</v>
+        <v>0.01772123120152493</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.1850546179228074</v>
+        <v>0.2574835709391959</v>
       </c>
       <c r="U3">
-        <v>0.002913212126515506</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.08668840090814907</v>
+        <v>0.09579204411344422</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0.09389967898965849</v>
+        <v>0.1076457333042218</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.02386048340700141</v>
+        <v>0</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.05177904815128674</v>
+        <v>0.03840906529140924</v>
       </c>
       <c r="AC3">
-        <v>0.02610290279829379</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.003841576449711024</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.01250020788622838</v>
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.003448708474100095</v>
+        <v>0</v>
       </c>
       <c r="AI3">
         <v>0</v>
@@ -909,19 +909,19 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.05678798442086321</v>
+        <v>0.04575874071720502</v>
       </c>
       <c r="E4">
-        <v>0.0242871400443589</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.161803582444647</v>
+        <v>0.2065758525627994</v>
       </c>
       <c r="G4">
-        <v>0.09439216285228069</v>
+        <v>0.1033444278195853</v>
       </c>
       <c r="H4">
-        <v>0.001346795382716377</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -930,19 +930,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.02733504183058729</v>
+        <v>0.0006555631716222298</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.04505857371829926</v>
+        <v>0.02779674280133414</v>
       </c>
       <c r="N4">
-        <v>0.001176587679292648</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.1706491552480527</v>
+        <v>0.2201216447844603</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -951,46 +951,46 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0.03654626037425295</v>
+        <v>0.0147612921361462</v>
       </c>
       <c r="S4">
-        <v>0.000190747852124653</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.1550707795137956</v>
+        <v>0.1962654801767864</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4">
-        <v>0.08292745293301676</v>
+        <v>0.08578778316813074</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>0.07163946931414898</v>
+        <v>0.0685017708203691</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.01261757612425373</v>
+        <v>0</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.04677858212166607</v>
+        <v>0.03043070184156126</v>
       </c>
       <c r="AC4">
-        <v>0.00976789465806702</v>
+        <v>0</v>
       </c>
       <c r="AD4">
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.001624213487576147</v>
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1022,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1073546664688817</v>
+        <v>0.1437093516255188</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.07793028104451112</v>
+        <v>0.09030587272488416</v>
       </c>
       <c r="H5">
-        <v>0.05468283094416811</v>
+        <v>0.04811315763425856</v>
       </c>
       <c r="I5">
-        <v>0.0122343381193363</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1043,19 +1043,19 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.05068918977111965</v>
+        <v>0.04086494058415983</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.04868384708559027</v>
+        <v>0.03722536496513904</v>
       </c>
       <c r="O5">
-        <v>0.04995689986191362</v>
+        <v>0.03953587871416944</v>
       </c>
       <c r="P5">
-        <v>0.1436408577156097</v>
+        <v>0.2095665928450432</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1064,43 +1064,43 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.04008372008401682</v>
+        <v>0.02161665490212738</v>
       </c>
       <c r="T5">
-        <v>0.05237892947137797</v>
+        <v>0.04393171588392772</v>
       </c>
       <c r="U5">
-        <v>0.1492368085505999</v>
+        <v>0.219722904966277</v>
       </c>
       <c r="V5">
-        <v>0.01543490219325717</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.04981100517139557</v>
+        <v>0.03927108867983479</v>
       </c>
       <c r="X5">
-        <v>0.03553693290571114</v>
+        <v>0.01336451132664207</v>
       </c>
       <c r="Y5">
-        <v>0.04663657723942972</v>
+        <v>0.03350969408683456</v>
       </c>
       <c r="Z5">
-        <v>0.004496403294989217</v>
+        <v>0</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.0166716255564343</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.03878649565222017</v>
+        <v>0.0192622710611836</v>
       </c>
       <c r="AD5">
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.005722992529367206</v>
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>3.069634007033281E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -1132,19 +1132,19 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1437771502484968</v>
+        <v>0.2066587911639945</v>
       </c>
       <c r="F6">
-        <v>0.02330623374455199</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.2114892608366498</v>
+        <v>0.3289900707075689</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.00406383546280327</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1153,64 +1153,64 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.03693933047650205</v>
+        <v>0.01364151430125565</v>
       </c>
       <c r="M6">
-        <v>0.03357855681889624</v>
+        <v>0.007569812530033812</v>
       </c>
       <c r="N6">
-        <v>0.005540189748102918</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.1120897772199037</v>
+        <v>0.1494111754229995</v>
       </c>
       <c r="P6">
-        <v>0.01682794021658608</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.01586541874620742</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.01364613197136705</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.001484990189108274</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.1085855062405828</v>
+        <v>0.1430802259215857</v>
       </c>
       <c r="U6">
-        <v>0.02732213739585551</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.07081239014550691</v>
+        <v>0.07483787482483688</v>
       </c>
       <c r="W6">
-        <v>0.006475379190420314</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.0713507715164827</v>
+        <v>0.07581053512772536</v>
       </c>
       <c r="Y6">
-        <v>0.003706598333989159</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.02658080176454792</v>
+        <v>0</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.01968783959844971</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.02708041354079439</v>
+        <v>0</v>
       </c>
       <c r="AD6">
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.01750688461609417</v>
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1219,10 +1219,10 @@
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.001112956023193792</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.001169505954907122</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.07942997222424276</v>
+        <v>0.08699747158727851</v>
       </c>
       <c r="F7">
-        <v>0.002705659660939972</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.1488056761555753</v>
+        <v>0.2080120268155005</v>
       </c>
       <c r="H7">
-        <v>0.07799112609631373</v>
+        <v>0.0844876401283354</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1260,82 +1260,82 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.01480037852260266</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.02371584738904317</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.03717443534326339</v>
+        <v>0.01328960684773252</v>
       </c>
       <c r="O7">
-        <v>0.03683269052529087</v>
+        <v>0.01269348897353513</v>
       </c>
       <c r="P7">
-        <v>0.1203480351408325</v>
+        <v>0.1583723320074717</v>
       </c>
       <c r="Q7">
-        <v>0.001151300285389212</v>
+        <v>0</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0.08182775334288879</v>
+        <v>0.09118000811180561</v>
       </c>
       <c r="T7">
-        <v>0.009867852797857171</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>0.1736407393074917</v>
+        <v>0.2513327277393959</v>
       </c>
       <c r="V7">
         <v>0</v>
       </c>
       <c r="W7">
-        <v>0.06771444998843709</v>
+        <v>0.06656166146511178</v>
       </c>
       <c r="X7">
-        <v>0.01090672767665261</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>0.04507625443179349</v>
+        <v>0.02707303632383294</v>
       </c>
       <c r="Z7">
-        <v>0.001502980493914679</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>0.0115645798122431</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.0008359723090414664</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>0.02261234763883244</v>
+        <v>0</v>
       </c>
       <c r="AD7">
-        <v>0.01521169310032659</v>
+        <v>0</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>0.0103181930185623</v>
+        <v>0</v>
       </c>
       <c r="AG7">
-        <v>0.001444284333509359</v>
+        <v>0</v>
       </c>
       <c r="AH7">
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>0.001892906691727291</v>
+        <v>0</v>
       </c>
       <c r="AJ7">
-        <v>0.002628143713228321</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -1352,16 +1352,16 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.171915518970356</v>
+        <v>0.2310281492600541</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.2272738736521296</v>
+        <v>0.319149393126531</v>
       </c>
       <c r="H8">
-        <v>0.04257619561915814</v>
+        <v>0.02514157405248941</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1373,64 +1373,64 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.01889292681700363</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.007409482858792315</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.06915799991735626</v>
+        <v>0.06745536159978638</v>
       </c>
       <c r="P8">
-        <v>0.08941973450795171</v>
+        <v>0.09970865498756031</v>
       </c>
       <c r="Q8">
-        <v>0.00247733438752588</v>
+        <v>0</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>0.05150015020915476</v>
+        <v>0.03934701753430901</v>
       </c>
       <c r="T8">
-        <v>0.05122391186978063</v>
+        <v>0.03890729228941706</v>
       </c>
       <c r="U8">
-        <v>0.126011593198091</v>
+        <v>0.1579567752884168</v>
       </c>
       <c r="V8">
-        <v>0.01647906213984717</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>0.03805057939363991</v>
+        <v>0.01793754977562122</v>
       </c>
       <c r="X8">
-        <v>0.02583957854042033</v>
+        <v>0</v>
       </c>
       <c r="Y8">
-        <v>0.02714466230595801</v>
+        <v>0.0005771534127644887</v>
       </c>
       <c r="Z8">
-        <v>0.00280435560057203</v>
+        <v>0</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.0009166137607812951</v>
+        <v>0</v>
       </c>
       <c r="AC8">
-        <v>0.02853546495944245</v>
+        <v>0.002791078673050419</v>
       </c>
       <c r="AD8">
         <v>0</v>
       </c>
       <c r="AE8">
-        <v>0.002370961292039028</v>
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1459,16 +1459,16 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0482312761539142</v>
+        <v>0.03707543901101638</v>
       </c>
       <c r="E9">
-        <v>0.0177164565589908</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.1323347293207159</v>
+        <v>0.1465100990634926</v>
       </c>
       <c r="G9">
-        <v>0.1531172326879172</v>
+        <v>0.1735521063223201</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1477,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.007010869511961233</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1486,13 +1486,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.01196819501393801</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.1877926143845071</v>
+        <v>0.2186714024424235</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1501,40 +1501,40 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>0.0590278679651367</v>
+        <v>0.05112386758437328</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>0.1808958380639347</v>
+        <v>0.2096973788597897</v>
       </c>
       <c r="U9">
         <v>0</v>
       </c>
       <c r="V9">
-        <v>0.08640912888973751</v>
+        <v>0.0867521190801708</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>0.06765995829780541</v>
+        <v>0.06235586621853578</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0.008597791279408896</v>
+        <v>0</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.03069832609736799</v>
+        <v>0.01426172141787771</v>
       </c>
       <c r="AC9">
-        <v>0.008539715774664372</v>
+        <v>0</v>
       </c>
       <c r="AD9">
         <v>0</v>
@@ -1572,13 +1572,13 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1306499020368805</v>
+        <v>0.1774501982713248</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.2078023066044032</v>
+        <v>0.3099417891815468</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1587,70 +1587,70 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.01359708455010669</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.03652496258483274</v>
+        <v>0.01581216453491812</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.002056200868358946</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.1041591757567175</v>
+        <v>0.1319584408996631</v>
       </c>
       <c r="P10">
-        <v>0.0605741837923722</v>
+        <v>0.05711119592350087</v>
       </c>
       <c r="Q10">
-        <v>0.01437207039826277</v>
+        <v>0</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>0.03029510981656293</v>
+        <v>0.005113818721442705</v>
       </c>
       <c r="T10">
-        <v>0.08078255899489731</v>
+        <v>0.09181445365476151</v>
       </c>
       <c r="U10">
-        <v>0.1108809668168667</v>
+        <v>0.1435015781008615</v>
       </c>
       <c r="V10">
-        <v>0.02416752188273563</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>0.01830413041389439</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>0.05619990484883865</v>
+        <v>0.04959937332299296</v>
       </c>
       <c r="Y10">
-        <v>0.02586035966878453</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>0.0104089588045487</v>
+        <v>0</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.02308569081082702</v>
+        <v>0</v>
       </c>
       <c r="AC10">
-        <v>0.03762253122580275</v>
+        <v>0.01769698738898766</v>
       </c>
       <c r="AD10">
         <v>0</v>
       </c>
       <c r="AE10">
-        <v>0.007351549382360567</v>
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1662,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="AI10">
-        <v>0.005304830741946437</v>
+        <v>0</v>
       </c>
       <c r="AJ10">
         <v>0</v>
@@ -1682,19 +1682,19 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1631414710949198</v>
+        <v>0.2372029761213744</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1924940083970885</v>
+        <v>0.2890839723425392</v>
       </c>
       <c r="H11">
-        <v>0.03756420461820427</v>
+        <v>0.01524350391379375</v>
       </c>
       <c r="I11">
-        <v>0.004640637244962681</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1703,67 +1703,67 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.02816377127915821</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.004609200477716417</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.07157727424412179</v>
+        <v>0.07536205239110252</v>
       </c>
       <c r="P11">
-        <v>0.08777864033113093</v>
+        <v>0.1039981803034833</v>
       </c>
       <c r="Q11">
-        <v>0.002734678690241851</v>
+        <v>0</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.04991696429805696</v>
+        <v>0.03707716931974977</v>
       </c>
       <c r="T11">
-        <v>0.04112255695941864</v>
+        <v>0.02153293853634939</v>
       </c>
       <c r="U11">
-        <v>0.1134804737389814</v>
+        <v>0.1494265093158164</v>
       </c>
       <c r="V11">
-        <v>0.01851723774310671</v>
+        <v>0</v>
       </c>
       <c r="W11">
-        <v>0.04034390844321196</v>
+        <v>0.0201566670300374</v>
       </c>
       <c r="X11">
-        <v>0.02967833346907484</v>
+        <v>0.001305122809740142</v>
       </c>
       <c r="Y11">
-        <v>0.03682549718492534</v>
+        <v>0.01393782879753528</v>
       </c>
       <c r="Z11">
-        <v>0.004509611069522554</v>
+        <v>0</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.01312151848404434</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>0.04912257689206471</v>
+        <v>0.0356730791184785</v>
       </c>
       <c r="AD11">
-        <v>0.006705953289132037</v>
+        <v>0</v>
       </c>
       <c r="AE11">
-        <v>0.002451419030229451</v>
+        <v>0</v>
       </c>
       <c r="AF11">
-        <v>0.0005497262494412238</v>
+        <v>0</v>
       </c>
       <c r="AG11">
         <v>0</v>
@@ -1772,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>0.0009503367712454924</v>
+        <v>0</v>
       </c>
       <c r="AJ11">
         <v>0</v>
@@ -1912,94 +1912,94 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.04135734829800942</v>
+        <v>0.0196080366815155</v>
       </c>
       <c r="E2">
-        <v>0.06207813206888152</v>
+        <v>0.0196080366815155</v>
       </c>
       <c r="F2">
-        <v>0.1171279148619792</v>
+        <v>0.06188213932142678</v>
       </c>
       <c r="G2">
-        <v>0.234006162657651</v>
+        <v>0.2065053214006022</v>
       </c>
       <c r="H2">
-        <v>0.234006162657651</v>
+        <v>0.2065053214006022</v>
       </c>
       <c r="I2">
-        <v>0.234006162657651</v>
+        <v>0.2065053214006022</v>
       </c>
       <c r="J2">
-        <v>0.234006162657651</v>
+        <v>0.2065053214006022</v>
       </c>
       <c r="K2">
-        <v>0.2578084747706699</v>
+        <v>0.2065053214006022</v>
       </c>
       <c r="L2">
-        <v>0.26600169546847</v>
+        <v>0.2065053214006022</v>
       </c>
       <c r="M2">
-        <v>0.3168440939737367</v>
+        <v>0.241814639961064</v>
       </c>
       <c r="N2">
-        <v>0.3269750295293541</v>
+        <v>0.241814639961064</v>
       </c>
       <c r="O2">
-        <v>0.4679033911727865</v>
+        <v>0.4262496953032309</v>
       </c>
       <c r="P2">
-        <v>0.4679033911727865</v>
+        <v>0.4262496953032309</v>
       </c>
       <c r="Q2">
-        <v>0.4679033911727865</v>
+        <v>0.4262496953032309</v>
       </c>
       <c r="R2">
-        <v>0.5577428032774518</v>
+        <v>0.5261135591303875</v>
       </c>
       <c r="S2">
-        <v>0.5577428032774518</v>
+        <v>0.5261135591303875</v>
       </c>
       <c r="T2">
-        <v>0.7844552369142017</v>
+        <v>0.8525531232162548</v>
       </c>
       <c r="U2">
-        <v>0.7870678708096609</v>
+        <v>0.8525531232162548</v>
       </c>
       <c r="V2">
-        <v>0.8714276585230173</v>
+        <v>0.9433461729434645</v>
       </c>
       <c r="W2">
-        <v>0.8714276585230173</v>
+        <v>0.9433461729434645</v>
       </c>
       <c r="X2">
-        <v>0.9351641465870453</v>
+        <v>1</v>
       </c>
       <c r="Y2">
-        <v>0.9351641465870453</v>
+        <v>1</v>
       </c>
       <c r="Z2">
-        <v>0.9461358481850234</v>
+        <v>1</v>
       </c>
       <c r="AA2">
-        <v>0.9497283293765314</v>
+        <v>1</v>
       </c>
       <c r="AB2">
-        <v>0.9728293479916947</v>
+        <v>1</v>
       </c>
       <c r="AC2">
-        <v>0.9912140422053064</v>
+        <v>1</v>
       </c>
       <c r="AD2">
-        <v>0.9912140422053064</v>
+        <v>1</v>
       </c>
       <c r="AE2">
-        <v>0.9955437295896724</v>
+        <v>1</v>
       </c>
       <c r="AF2">
-        <v>0.996900335596495</v>
+        <v>1</v>
       </c>
       <c r="AG2">
-        <v>0.996900335596495</v>
+        <v>1</v>
       </c>
       <c r="AH2">
         <v>1</v>
@@ -2022,94 +2022,94 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.05993219647006445</v>
+        <v>0.05181097338657904</v>
       </c>
       <c r="E3">
-        <v>0.08185909078809886</v>
+        <v>0.05181097338657904</v>
       </c>
       <c r="F3">
-        <v>0.2016544669172737</v>
+        <v>0.2020233005456982</v>
       </c>
       <c r="G3">
-        <v>0.298377651780514</v>
+        <v>0.3143102306912388</v>
       </c>
       <c r="H3">
-        <v>0.298377651780514</v>
+        <v>0.3143102306912388</v>
       </c>
       <c r="I3">
-        <v>0.298377651780514</v>
+        <v>0.3143102306912388</v>
       </c>
       <c r="J3">
-        <v>0.298377651780514</v>
+        <v>0.3143102306912388</v>
       </c>
       <c r="K3">
-        <v>0.3092758613128676</v>
+        <v>0.3143102306912388</v>
       </c>
       <c r="L3">
-        <v>0.3119556205896515</v>
+        <v>0.3143102306912388</v>
       </c>
       <c r="M3">
-        <v>0.3380141029576532</v>
+        <v>0.3143102306912388</v>
       </c>
       <c r="N3">
-        <v>0.3397128651484212</v>
+        <v>0.3143102306912388</v>
       </c>
       <c r="O3">
-        <v>0.4707177091541533</v>
+        <v>0.482948355150204</v>
       </c>
       <c r="P3">
-        <v>0.4707177091541533</v>
+        <v>0.482948355150204</v>
       </c>
       <c r="Q3">
-        <v>0.4707177091541533</v>
+        <v>0.482948355150204</v>
       </c>
       <c r="R3">
-        <v>0.5099111628862482</v>
+        <v>0.500669586351729</v>
       </c>
       <c r="S3">
-        <v>0.5099111628862482</v>
+        <v>0.500669586351729</v>
       </c>
       <c r="T3">
-        <v>0.6949657808090555</v>
+        <v>0.7581531572909249</v>
       </c>
       <c r="U3">
-        <v>0.697878992935571</v>
+        <v>0.7581531572909249</v>
       </c>
       <c r="V3">
-        <v>0.7845673938437201</v>
+        <v>0.8539452014043691</v>
       </c>
       <c r="W3">
-        <v>0.7845673938437201</v>
+        <v>0.8539452014043691</v>
       </c>
       <c r="X3">
-        <v>0.8784670728333785</v>
+        <v>0.9615909347085909</v>
       </c>
       <c r="Y3">
-        <v>0.8784670728333785</v>
+        <v>0.9615909347085909</v>
       </c>
       <c r="Z3">
-        <v>0.90232755624038</v>
+        <v>0.9615909347085909</v>
       </c>
       <c r="AA3">
-        <v>0.90232755624038</v>
+        <v>0.9615909347085909</v>
       </c>
       <c r="AB3">
-        <v>0.9541066043916667</v>
+        <v>1</v>
       </c>
       <c r="AC3">
-        <v>0.9802095071899605</v>
+        <v>1</v>
       </c>
       <c r="AD3">
-        <v>0.9840510836396715</v>
+        <v>1</v>
       </c>
       <c r="AE3">
-        <v>0.9965512915258999</v>
+        <v>1</v>
       </c>
       <c r="AF3">
-        <v>0.9965512915258999</v>
+        <v>1</v>
       </c>
       <c r="AG3">
-        <v>0.9965512915258999</v>
+        <v>1</v>
       </c>
       <c r="AH3">
         <v>1</v>
@@ -2132,103 +2132,103 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.05678798442086321</v>
+        <v>0.04575874071720502</v>
       </c>
       <c r="E4">
-        <v>0.08107512446522211</v>
+        <v>0.04575874071720502</v>
       </c>
       <c r="F4">
-        <v>0.2428787069098691</v>
+        <v>0.2523345932800044</v>
       </c>
       <c r="G4">
-        <v>0.3372708697621498</v>
+        <v>0.3556790210995897</v>
       </c>
       <c r="H4">
-        <v>0.3386176651448661</v>
+        <v>0.3556790210995897</v>
       </c>
       <c r="I4">
-        <v>0.3386176651448661</v>
+        <v>0.3556790210995897</v>
       </c>
       <c r="J4">
-        <v>0.3386176651448661</v>
+        <v>0.3556790210995897</v>
       </c>
       <c r="K4">
-        <v>0.3659527069754534</v>
+        <v>0.356334584271212</v>
       </c>
       <c r="L4">
-        <v>0.3659527069754534</v>
+        <v>0.356334584271212</v>
       </c>
       <c r="M4">
-        <v>0.4110112806937526</v>
+        <v>0.3841313270725461</v>
       </c>
       <c r="N4">
-        <v>0.4121878683730453</v>
+        <v>0.3841313270725461</v>
       </c>
       <c r="O4">
-        <v>0.5828370236210979</v>
+        <v>0.6042529718570064</v>
       </c>
       <c r="P4">
-        <v>0.5828370236210979</v>
+        <v>0.6042529718570064</v>
       </c>
       <c r="Q4">
-        <v>0.5828370236210979</v>
+        <v>0.6042529718570064</v>
       </c>
       <c r="R4">
-        <v>0.6193832839953508</v>
+        <v>0.6190142639931526</v>
       </c>
       <c r="S4">
-        <v>0.6195740318474755</v>
+        <v>0.6190142639931526</v>
       </c>
       <c r="T4">
-        <v>0.7746448113612712</v>
+        <v>0.815279744169939</v>
       </c>
       <c r="U4">
-        <v>0.7746448113612712</v>
+        <v>0.815279744169939</v>
       </c>
       <c r="V4">
-        <v>0.8575722642942879</v>
+        <v>0.9010675273380697</v>
       </c>
       <c r="W4">
-        <v>0.8575722642942879</v>
+        <v>0.9010675273380697</v>
       </c>
       <c r="X4">
-        <v>0.9292117336084369</v>
+        <v>0.9695692981584388</v>
       </c>
       <c r="Y4">
-        <v>0.9292117336084369</v>
+        <v>0.9695692981584388</v>
       </c>
       <c r="Z4">
-        <v>0.9418293097326906</v>
+        <v>0.9695692981584388</v>
       </c>
       <c r="AA4">
-        <v>0.9418293097326906</v>
+        <v>0.9695692981584388</v>
       </c>
       <c r="AB4">
-        <v>0.9886078918543567</v>
+        <v>1</v>
       </c>
       <c r="AC4">
-        <v>0.9983757865124238</v>
+        <v>1</v>
       </c>
       <c r="AD4">
-        <v>0.9983757865124238</v>
+        <v>1</v>
       </c>
       <c r="AE4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AF4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AG4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -2245,94 +2245,94 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1073546664688817</v>
+        <v>0.1437093516255188</v>
       </c>
       <c r="F5">
-        <v>0.1073546664688817</v>
+        <v>0.1437093516255188</v>
       </c>
       <c r="G5">
-        <v>0.1852849475133928</v>
+        <v>0.234015224350403</v>
       </c>
       <c r="H5">
-        <v>0.2399677784575609</v>
+        <v>0.2821283819846616</v>
       </c>
       <c r="I5">
-        <v>0.2522021165768972</v>
+        <v>0.2821283819846616</v>
       </c>
       <c r="J5">
-        <v>0.2522021165768972</v>
+        <v>0.2821283819846616</v>
       </c>
       <c r="K5">
-        <v>0.2522021165768972</v>
+        <v>0.2821283819846616</v>
       </c>
       <c r="L5">
-        <v>0.3028913063480168</v>
+        <v>0.3229933225688214</v>
       </c>
       <c r="M5">
-        <v>0.3028913063480168</v>
+        <v>0.3229933225688214</v>
       </c>
       <c r="N5">
-        <v>0.3515751534336071</v>
+        <v>0.3602186875339605</v>
       </c>
       <c r="O5">
-        <v>0.4015320532955207</v>
+        <v>0.3997545662481299</v>
       </c>
       <c r="P5">
-        <v>0.5451729110111303</v>
+        <v>0.6093211590931731</v>
       </c>
       <c r="Q5">
-        <v>0.5451729110111303</v>
+        <v>0.6093211590931731</v>
       </c>
       <c r="R5">
-        <v>0.5451729110111303</v>
+        <v>0.6093211590931731</v>
       </c>
       <c r="S5">
-        <v>0.5852566310951471</v>
+        <v>0.6309378139953005</v>
       </c>
       <c r="T5">
-        <v>0.6376355605665252</v>
+        <v>0.6748695298792282</v>
       </c>
       <c r="U5">
-        <v>0.7868723691171251</v>
+        <v>0.8945924348455052</v>
       </c>
       <c r="V5">
-        <v>0.8023072713103823</v>
+        <v>0.8945924348455052</v>
       </c>
       <c r="W5">
-        <v>0.8521182764817778</v>
+        <v>0.93386352352534</v>
       </c>
       <c r="X5">
-        <v>0.887655209387489</v>
+        <v>0.947228034851982</v>
       </c>
       <c r="Y5">
-        <v>0.9342917866269187</v>
+        <v>0.9807377289388166</v>
       </c>
       <c r="Z5">
-        <v>0.9387881899219079</v>
+        <v>0.9807377289388166</v>
       </c>
       <c r="AA5">
-        <v>0.9387881899219079</v>
+        <v>0.9807377289388166</v>
       </c>
       <c r="AB5">
-        <v>0.9554598154783422</v>
+        <v>0.9807377289388166</v>
       </c>
       <c r="AC5">
-        <v>0.9942463111305624</v>
+        <v>1</v>
       </c>
       <c r="AD5">
-        <v>0.9942463111305624</v>
+        <v>1</v>
       </c>
       <c r="AE5">
-        <v>0.9999693036599296</v>
+        <v>1</v>
       </c>
       <c r="AF5">
-        <v>0.9999693036599296</v>
+        <v>1</v>
       </c>
       <c r="AG5">
-        <v>0.9999693036599296</v>
+        <v>1</v>
       </c>
       <c r="AH5">
-        <v>0.9999693036599296</v>
+        <v>1</v>
       </c>
       <c r="AI5">
         <v>1</v>
@@ -2355,94 +2355,94 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1437771502484968</v>
+        <v>0.2066587911639945</v>
       </c>
       <c r="F6">
-        <v>0.1670833839930488</v>
+        <v>0.2066587911639945</v>
       </c>
       <c r="G6">
-        <v>0.3785726448296985</v>
+        <v>0.5356488618715634</v>
       </c>
       <c r="H6">
-        <v>0.3785726448296985</v>
+        <v>0.5356488618715634</v>
       </c>
       <c r="I6">
-        <v>0.3826364802925018</v>
+        <v>0.5356488618715634</v>
       </c>
       <c r="J6">
-        <v>0.3826364802925018</v>
+        <v>0.5356488618715634</v>
       </c>
       <c r="K6">
-        <v>0.3826364802925018</v>
+        <v>0.5356488618715634</v>
       </c>
       <c r="L6">
-        <v>0.4195758107690039</v>
+        <v>0.549290376172819</v>
       </c>
       <c r="M6">
-        <v>0.4531543675879001</v>
+        <v>0.5568601887028528</v>
       </c>
       <c r="N6">
-        <v>0.458694557336003</v>
+        <v>0.5568601887028528</v>
       </c>
       <c r="O6">
-        <v>0.5707843345559067</v>
+        <v>0.7062713641258522</v>
       </c>
       <c r="P6">
-        <v>0.5876122747724928</v>
+        <v>0.7062713641258522</v>
       </c>
       <c r="Q6">
-        <v>0.6034776935187002</v>
+        <v>0.7062713641258522</v>
       </c>
       <c r="R6">
-        <v>0.6171238254900673</v>
+        <v>0.7062713641258522</v>
       </c>
       <c r="S6">
-        <v>0.6186088156791756</v>
+        <v>0.7062713641258522</v>
       </c>
       <c r="T6">
-        <v>0.7271943219197584</v>
+        <v>0.8493515900474379</v>
       </c>
       <c r="U6">
-        <v>0.754516459315614</v>
+        <v>0.8493515900474379</v>
       </c>
       <c r="V6">
-        <v>0.8253288494611208</v>
+        <v>0.9241894648722747</v>
       </c>
       <c r="W6">
-        <v>0.8318042286515411</v>
+        <v>0.9241894648722747</v>
       </c>
       <c r="X6">
-        <v>0.9031550001680239</v>
+        <v>1</v>
       </c>
       <c r="Y6">
-        <v>0.906861598502013</v>
+        <v>1</v>
       </c>
       <c r="Z6">
-        <v>0.9334424002665609</v>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <v>0.9334424002665609</v>
+        <v>1</v>
       </c>
       <c r="AB6">
-        <v>0.9531302398650106</v>
+        <v>1</v>
       </c>
       <c r="AC6">
-        <v>0.9802106534058049</v>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <v>0.9802106534058049</v>
+        <v>1</v>
       </c>
       <c r="AE6">
-        <v>0.9977175380218991</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <v>0.9977175380218991</v>
+        <v>1</v>
       </c>
       <c r="AG6">
-        <v>0.9977175380218991</v>
+        <v>1</v>
       </c>
       <c r="AH6">
-        <v>0.9988304940450929</v>
+        <v>1</v>
       </c>
       <c r="AI6">
         <v>1</v>
@@ -2465,100 +2465,100 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.07942997222424276</v>
+        <v>0.08699747158727851</v>
       </c>
       <c r="F7">
-        <v>0.08213563188518273</v>
+        <v>0.08699747158727851</v>
       </c>
       <c r="G7">
-        <v>0.2309413080407581</v>
+        <v>0.295009498402779</v>
       </c>
       <c r="H7">
-        <v>0.3089324341370718</v>
+        <v>0.3794971385311144</v>
       </c>
       <c r="I7">
-        <v>0.3089324341370718</v>
+        <v>0.3794971385311144</v>
       </c>
       <c r="J7">
-        <v>0.3089324341370718</v>
+        <v>0.3794971385311144</v>
       </c>
       <c r="K7">
-        <v>0.3237328126596745</v>
+        <v>0.3794971385311144</v>
       </c>
       <c r="L7">
-        <v>0.3474486600487177</v>
+        <v>0.3794971385311144</v>
       </c>
       <c r="M7">
-        <v>0.3474486600487177</v>
+        <v>0.3794971385311144</v>
       </c>
       <c r="N7">
-        <v>0.3846230953919811</v>
+        <v>0.3927867453788469</v>
       </c>
       <c r="O7">
-        <v>0.421455785917272</v>
+        <v>0.4054802343523821</v>
       </c>
       <c r="P7">
-        <v>0.5418038210581044</v>
+        <v>0.5638525663598537</v>
       </c>
       <c r="Q7">
-        <v>0.5429551213434937</v>
+        <v>0.5638525663598537</v>
       </c>
       <c r="R7">
-        <v>0.5429551213434937</v>
+        <v>0.5638525663598537</v>
       </c>
       <c r="S7">
-        <v>0.6247828746863825</v>
+        <v>0.6550325744716593</v>
       </c>
       <c r="T7">
-        <v>0.6346507274842397</v>
+        <v>0.6550325744716593</v>
       </c>
       <c r="U7">
-        <v>0.8082914667917314</v>
+        <v>0.9063653022110552</v>
       </c>
       <c r="V7">
-        <v>0.8082914667917314</v>
+        <v>0.9063653022110552</v>
       </c>
       <c r="W7">
-        <v>0.8760059167801685</v>
+        <v>0.9729269636761669</v>
       </c>
       <c r="X7">
-        <v>0.8869126444568211</v>
+        <v>0.9729269636761669</v>
       </c>
       <c r="Y7">
-        <v>0.9319888988886146</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Z7">
-        <v>0.9334918793825293</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AA7">
-        <v>0.9450564591947724</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AB7">
-        <v>0.9458924315038139</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AC7">
-        <v>0.9685047791426463</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD7">
-        <v>0.9837164722429729</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE7">
-        <v>0.9837164722429729</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF7">
-        <v>0.9940346652615352</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG7">
-        <v>0.9954789495950446</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH7">
-        <v>0.9954789495950446</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI7">
-        <v>0.9973718562867718</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ7">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -2575,82 +2575,82 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.171915518970356</v>
+        <v>0.2310281492600541</v>
       </c>
       <c r="F8">
-        <v>0.171915518970356</v>
+        <v>0.2310281492600541</v>
       </c>
       <c r="G8">
-        <v>0.3991893926224856</v>
+        <v>0.550177542386585</v>
       </c>
       <c r="H8">
-        <v>0.4417655882416437</v>
+        <v>0.5753191164390744</v>
       </c>
       <c r="I8">
-        <v>0.4417655882416437</v>
+        <v>0.5753191164390744</v>
       </c>
       <c r="J8">
-        <v>0.4417655882416437</v>
+        <v>0.5753191164390744</v>
       </c>
       <c r="K8">
-        <v>0.4417655882416437</v>
+        <v>0.5753191164390744</v>
       </c>
       <c r="L8">
-        <v>0.4606585150586474</v>
+        <v>0.5753191164390744</v>
       </c>
       <c r="M8">
-        <v>0.4606585150586474</v>
+        <v>0.5753191164390744</v>
       </c>
       <c r="N8">
-        <v>0.4680679979174397</v>
+        <v>0.5753191164390744</v>
       </c>
       <c r="O8">
-        <v>0.537225997834796</v>
+        <v>0.6427744780388608</v>
       </c>
       <c r="P8">
-        <v>0.6266457323427477</v>
+        <v>0.7424831330264211</v>
       </c>
       <c r="Q8">
-        <v>0.6291230667302735</v>
+        <v>0.7424831330264211</v>
       </c>
       <c r="R8">
-        <v>0.6291230667302735</v>
+        <v>0.7424831330264211</v>
       </c>
       <c r="S8">
-        <v>0.6806232169394283</v>
+        <v>0.7818301505607301</v>
       </c>
       <c r="T8">
-        <v>0.7318471288092089</v>
+        <v>0.8207374428501472</v>
       </c>
       <c r="U8">
-        <v>0.8578587220073</v>
+        <v>0.9786942181385639</v>
       </c>
       <c r="V8">
-        <v>0.8743377841471471</v>
+        <v>0.9786942181385639</v>
       </c>
       <c r="W8">
-        <v>0.912388363540787</v>
+        <v>0.9966317679141852</v>
       </c>
       <c r="X8">
-        <v>0.9382279420812073</v>
+        <v>0.9966317679141852</v>
       </c>
       <c r="Y8">
-        <v>0.9653726043871653</v>
+        <v>0.9972089213269497</v>
       </c>
       <c r="Z8">
-        <v>0.9681769599877373</v>
+        <v>0.9972089213269497</v>
       </c>
       <c r="AA8">
-        <v>0.9681769599877373</v>
+        <v>0.9972089213269497</v>
       </c>
       <c r="AB8">
-        <v>0.9690935737485187</v>
+        <v>0.9972089213269497</v>
       </c>
       <c r="AC8">
-        <v>0.9976290387079612</v>
+        <v>1</v>
       </c>
       <c r="AD8">
-        <v>0.9976290387079612</v>
+        <v>1</v>
       </c>
       <c r="AE8">
         <v>1</v>
@@ -2682,103 +2682,103 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0482312761539142</v>
+        <v>0.03707543901101638</v>
       </c>
       <c r="E9">
-        <v>0.06594773271290499</v>
+        <v>0.03707543901101638</v>
       </c>
       <c r="F9">
-        <v>0.1982824620336209</v>
+        <v>0.1835855380745089</v>
       </c>
       <c r="G9">
-        <v>0.3513996947215381</v>
+        <v>0.357137644396829</v>
       </c>
       <c r="H9">
-        <v>0.3513996947215381</v>
+        <v>0.357137644396829</v>
       </c>
       <c r="I9">
-        <v>0.3513996947215381</v>
+        <v>0.357137644396829</v>
       </c>
       <c r="J9">
-        <v>0.3584105642334994</v>
+        <v>0.357137644396829</v>
       </c>
       <c r="K9">
-        <v>0.3584105642334994</v>
+        <v>0.357137644396829</v>
       </c>
       <c r="L9">
-        <v>0.3584105642334994</v>
+        <v>0.357137644396829</v>
       </c>
       <c r="M9">
-        <v>0.3703787592474374</v>
+        <v>0.357137644396829</v>
       </c>
       <c r="N9">
-        <v>0.3703787592474374</v>
+        <v>0.357137644396829</v>
       </c>
       <c r="O9">
-        <v>0.5581713736319445</v>
+        <v>0.5758090468392525</v>
       </c>
       <c r="P9">
-        <v>0.5581713736319445</v>
+        <v>0.5758090468392525</v>
       </c>
       <c r="Q9">
-        <v>0.5581713736319445</v>
+        <v>0.5758090468392525</v>
       </c>
       <c r="R9">
-        <v>0.6171992415970812</v>
+        <v>0.6269329144236258</v>
       </c>
       <c r="S9">
-        <v>0.6171992415970812</v>
+        <v>0.6269329144236258</v>
       </c>
       <c r="T9">
-        <v>0.7980950796610159</v>
+        <v>0.8366302932834155</v>
       </c>
       <c r="U9">
-        <v>0.7980950796610159</v>
+        <v>0.8366302932834155</v>
       </c>
       <c r="V9">
-        <v>0.8845042085507534</v>
+        <v>0.9233824123635863</v>
       </c>
       <c r="W9">
-        <v>0.8845042085507534</v>
+        <v>0.9233824123635863</v>
       </c>
       <c r="X9">
-        <v>0.9521641668485588</v>
+        <v>0.985738278582122</v>
       </c>
       <c r="Y9">
-        <v>0.9521641668485588</v>
+        <v>0.985738278582122</v>
       </c>
       <c r="Z9">
-        <v>0.9607619581279676</v>
+        <v>0.985738278582122</v>
       </c>
       <c r="AA9">
-        <v>0.9607619581279676</v>
+        <v>0.985738278582122</v>
       </c>
       <c r="AB9">
-        <v>0.9914602842253356</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AC9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AD9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AE9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AF9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AG9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ9">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:36">
@@ -2795,100 +2795,100 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1306499020368805</v>
+        <v>0.1774501982713248</v>
       </c>
       <c r="F10">
-        <v>0.1306499020368805</v>
+        <v>0.1774501982713248</v>
       </c>
       <c r="G10">
-        <v>0.3384522086412837</v>
+        <v>0.4873919874528716</v>
       </c>
       <c r="H10">
-        <v>0.3384522086412837</v>
+        <v>0.4873919874528716</v>
       </c>
       <c r="I10">
-        <v>0.3384522086412837</v>
+        <v>0.4873919874528716</v>
       </c>
       <c r="J10">
-        <v>0.3520492931913903</v>
+        <v>0.4873919874528716</v>
       </c>
       <c r="K10">
-        <v>0.3520492931913903</v>
+        <v>0.4873919874528716</v>
       </c>
       <c r="L10">
-        <v>0.3885742557762231</v>
+        <v>0.5032041519877897</v>
       </c>
       <c r="M10">
-        <v>0.3885742557762231</v>
+        <v>0.5032041519877897</v>
       </c>
       <c r="N10">
-        <v>0.390630456644582</v>
+        <v>0.5032041519877897</v>
       </c>
       <c r="O10">
-        <v>0.4947896324012995</v>
+        <v>0.6351625928874528</v>
       </c>
       <c r="P10">
-        <v>0.5553638161936717</v>
+        <v>0.6922737888109537</v>
       </c>
       <c r="Q10">
-        <v>0.5697358865919345</v>
+        <v>0.6922737888109537</v>
       </c>
       <c r="R10">
-        <v>0.5697358865919345</v>
+        <v>0.6922737888109537</v>
       </c>
       <c r="S10">
-        <v>0.6000309964084974</v>
+        <v>0.6973876075323964</v>
       </c>
       <c r="T10">
-        <v>0.6808135554033947</v>
+        <v>0.7892020611871579</v>
       </c>
       <c r="U10">
-        <v>0.7916945222202614</v>
+        <v>0.9327036392880194</v>
       </c>
       <c r="V10">
-        <v>0.815862044102997</v>
+        <v>0.9327036392880194</v>
       </c>
       <c r="W10">
-        <v>0.8341661745168913</v>
+        <v>0.9327036392880194</v>
       </c>
       <c r="X10">
-        <v>0.89036607936573</v>
+        <v>0.9823030126110123</v>
       </c>
       <c r="Y10">
-        <v>0.9162264390345145</v>
+        <v>0.9823030126110123</v>
       </c>
       <c r="Z10">
-        <v>0.9266353978390632</v>
+        <v>0.9823030126110123</v>
       </c>
       <c r="AA10">
-        <v>0.9266353978390632</v>
+        <v>0.9823030126110123</v>
       </c>
       <c r="AB10">
-        <v>0.9497210886498902</v>
+        <v>0.9823030126110123</v>
       </c>
       <c r="AC10">
-        <v>0.987343619875693</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD10">
-        <v>0.987343619875693</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE10">
-        <v>0.9946951692580536</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF10">
-        <v>0.9946951692580536</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG10">
-        <v>0.9946951692580536</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH10">
-        <v>0.9946951692580536</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ10">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:36">
@@ -2905,94 +2905,94 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1631414710949198</v>
+        <v>0.2372029761213744</v>
       </c>
       <c r="F11">
-        <v>0.1631414710949198</v>
+        <v>0.2372029761213744</v>
       </c>
       <c r="G11">
-        <v>0.3556354794920083</v>
+        <v>0.5262869484639137</v>
       </c>
       <c r="H11">
-        <v>0.3931996841102126</v>
+        <v>0.5415304523777074</v>
       </c>
       <c r="I11">
-        <v>0.3978403213551752</v>
+        <v>0.5415304523777074</v>
       </c>
       <c r="J11">
-        <v>0.3978403213551752</v>
+        <v>0.5415304523777074</v>
       </c>
       <c r="K11">
-        <v>0.3978403213551752</v>
+        <v>0.5415304523777074</v>
       </c>
       <c r="L11">
-        <v>0.4260040926343334</v>
+        <v>0.5415304523777074</v>
       </c>
       <c r="M11">
-        <v>0.4260040926343334</v>
+        <v>0.5415304523777074</v>
       </c>
       <c r="N11">
-        <v>0.4306132931120498</v>
+        <v>0.5415304523777074</v>
       </c>
       <c r="O11">
-        <v>0.5021905673561716</v>
+        <v>0.6168925047688099</v>
       </c>
       <c r="P11">
-        <v>0.5899692076873025</v>
+        <v>0.7208906850722931</v>
       </c>
       <c r="Q11">
-        <v>0.5927038863775443</v>
+        <v>0.7208906850722931</v>
       </c>
       <c r="R11">
-        <v>0.5927038863775443</v>
+        <v>0.7208906850722931</v>
       </c>
       <c r="S11">
-        <v>0.6426208506756013</v>
+        <v>0.757967854392043</v>
       </c>
       <c r="T11">
-        <v>0.68374340763502</v>
+        <v>0.7795007929283924</v>
       </c>
       <c r="U11">
-        <v>0.7972238813740014</v>
+        <v>0.9289273022442087</v>
       </c>
       <c r="V11">
-        <v>0.8157411191171081</v>
+        <v>0.9289273022442087</v>
       </c>
       <c r="W11">
-        <v>0.8560850275603201</v>
+        <v>0.9490839692742461</v>
       </c>
       <c r="X11">
-        <v>0.8857633610293949</v>
+        <v>0.9503890920839863</v>
       </c>
       <c r="Y11">
-        <v>0.9225888582143202</v>
+        <v>0.9643269208815215</v>
       </c>
       <c r="Z11">
-        <v>0.9270984692838428</v>
+        <v>0.9643269208815215</v>
       </c>
       <c r="AA11">
-        <v>0.9270984692838428</v>
+        <v>0.9643269208815215</v>
       </c>
       <c r="AB11">
-        <v>0.9402199877678871</v>
+        <v>0.9643269208815215</v>
       </c>
       <c r="AC11">
-        <v>0.9893425646599517</v>
+        <v>1</v>
       </c>
       <c r="AD11">
-        <v>0.9960485179490838</v>
+        <v>1</v>
       </c>
       <c r="AE11">
-        <v>0.9984999369793133</v>
+        <v>1</v>
       </c>
       <c r="AF11">
-        <v>0.9990496632287545</v>
+        <v>1</v>
       </c>
       <c r="AG11">
-        <v>0.9990496632287545</v>
+        <v>1</v>
       </c>
       <c r="AH11">
-        <v>0.9990496632287545</v>
+        <v>1</v>
       </c>
       <c r="AI11">
         <v>1</v>
@@ -3060,34 +3060,34 @@
         <v>36</v>
       </c>
       <c r="B2">
+        <v>0.0196080366815155</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
         <v>0.5</v>
       </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
+      <c r="E2">
+        <v>0.5261135591303875</v>
+      </c>
+      <c r="F2">
         <v>17</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.5577428032774518</v>
-      </c>
       <c r="G2">
-        <v>15</v>
+        <v>700</v>
       </c>
       <c r="H2">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2">
         <v>34</v>
-      </c>
-      <c r="I2">
-        <v>700</v>
-      </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
-        <v>59</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -3101,34 +3101,34 @@
         <v>37</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.5</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="E3">
+        <v>0.500669586351729</v>
+      </c>
+      <c r="F3">
         <v>17</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.5099111628862482</v>
-      </c>
       <c r="G3">
+        <v>700</v>
+      </c>
+      <c r="H3">
         <v>16</v>
       </c>
-      <c r="H3">
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3">
         <v>34</v>
-      </c>
-      <c r="I3">
-        <v>700</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
@@ -3142,34 +3142,34 @@
         <v>38</v>
       </c>
       <c r="B4">
+        <v>0.04575874071720502</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
         <v>0.5</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
+      <c r="E4">
+        <v>0.6042529718570064</v>
+      </c>
+      <c r="F4">
         <v>14</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.5828370236210979</v>
-      </c>
       <c r="G4">
-        <v>13</v>
+        <v>700</v>
       </c>
       <c r="H4">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4">
         <v>34</v>
-      </c>
-      <c r="I4">
-        <v>700</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>59</v>
       </c>
       <c r="L4" t="s">
         <v>60</v>
@@ -3183,34 +3183,34 @@
         <v>39</v>
       </c>
       <c r="B5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
+        <v>0.5</v>
+      </c>
+      <c r="E5">
+        <v>0.6093211590931731</v>
+      </c>
+      <c r="F5">
         <v>15</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.5451729110111303</v>
-      </c>
       <c r="G5">
+        <v>700</v>
+      </c>
+      <c r="H5">
         <v>13</v>
       </c>
-      <c r="H5">
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5">
         <v>34</v>
-      </c>
-      <c r="I5">
-        <v>700</v>
-      </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
-        <v>59</v>
       </c>
       <c r="L5" t="s">
         <v>60</v>
@@ -3224,34 +3224,34 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>0.5</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.5356488618715634</v>
       </c>
       <c r="F6">
-        <v>0.5707843345559067</v>
+        <v>6</v>
       </c>
       <c r="G6">
-        <v>12</v>
+        <v>700</v>
       </c>
       <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6">
         <v>34</v>
-      </c>
-      <c r="I6">
-        <v>700</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
       </c>
       <c r="L6" t="s">
         <v>60</v>
@@ -3265,34 +3265,34 @@
         <v>41</v>
       </c>
       <c r="B7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
+        <v>0.5</v>
+      </c>
+      <c r="E7">
+        <v>0.5638525663598537</v>
+      </c>
+      <c r="F7">
         <v>15</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.5418038210581044</v>
-      </c>
       <c r="G7">
+        <v>700</v>
+      </c>
+      <c r="H7">
         <v>13</v>
       </c>
-      <c r="H7">
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7">
         <v>34</v>
-      </c>
-      <c r="I7">
-        <v>700</v>
-      </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
-        <v>59</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
@@ -3306,34 +3306,34 @@
         <v>42</v>
       </c>
       <c r="B8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>0.5</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.550177542386585</v>
       </c>
       <c r="F8">
-        <v>0.537225997834796</v>
+        <v>6</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>700</v>
       </c>
       <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8">
         <v>34</v>
-      </c>
-      <c r="I8">
-        <v>700</v>
-      </c>
-      <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
-        <v>59</v>
       </c>
       <c r="L8" t="s">
         <v>60</v>
@@ -3347,34 +3347,34 @@
         <v>43</v>
       </c>
       <c r="B9">
+        <v>0.03707543901101638</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
         <v>0.5</v>
       </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
+      <c r="E9">
+        <v>0.5758090468392525</v>
+      </c>
+      <c r="F9">
         <v>14</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.5581713736319445</v>
-      </c>
       <c r="G9">
-        <v>12</v>
+        <v>700</v>
       </c>
       <c r="H9">
+        <v>11</v>
+      </c>
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9">
         <v>34</v>
-      </c>
-      <c r="I9">
-        <v>700</v>
-      </c>
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
-        <v>59</v>
       </c>
       <c r="L9" t="s">
         <v>60</v>
@@ -3388,34 +3388,34 @@
         <v>44</v>
       </c>
       <c r="B10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>0.5</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.5032041519877897</v>
       </c>
       <c r="F10">
-        <v>0.5553638161936717</v>
+        <v>11</v>
       </c>
       <c r="G10">
-        <v>13</v>
+        <v>700</v>
       </c>
       <c r="H10">
+        <v>9</v>
+      </c>
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10">
         <v>34</v>
-      </c>
-      <c r="I10">
-        <v>700</v>
-      </c>
-      <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
-        <v>59</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
@@ -3429,34 +3429,34 @@
         <v>45</v>
       </c>
       <c r="B11">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>0.5</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.5262869484639137</v>
       </c>
       <c r="F11">
-        <v>0.5021905673561716</v>
+        <v>6</v>
       </c>
       <c r="G11">
-        <v>12</v>
+        <v>700</v>
       </c>
       <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11">
         <v>34</v>
-      </c>
-      <c r="I11">
-        <v>700</v>
-      </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
-        <v>59</v>
       </c>
       <c r="L11" t="s">
         <v>60</v>
@@ -3524,34 +3524,34 @@
         <v>36</v>
       </c>
       <c r="B2">
+        <v>0.0196080366815155</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
         <v>0.7</v>
       </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
+      <c r="E2">
+        <v>0.8525531232162548</v>
+      </c>
+      <c r="F2">
         <v>19</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.7844552369142017</v>
-      </c>
       <c r="G2">
-        <v>17</v>
+        <v>700</v>
       </c>
       <c r="H2">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2">
         <v>34</v>
-      </c>
-      <c r="I2">
-        <v>700</v>
-      </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
-        <v>59</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -3565,34 +3565,34 @@
         <v>37</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.7</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>21</v>
-      </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.7581531572909249</v>
       </c>
       <c r="F3">
-        <v>0.7845673938437201</v>
+        <v>19</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>700</v>
       </c>
       <c r="H3">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3">
         <v>34</v>
-      </c>
-      <c r="I3">
-        <v>700</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
@@ -3606,34 +3606,34 @@
         <v>38</v>
       </c>
       <c r="B4">
+        <v>0.04575874071720502</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
         <v>0.7</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
+      <c r="E4">
+        <v>0.815279744169939</v>
+      </c>
+      <c r="F4">
         <v>19</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.7746448113612712</v>
-      </c>
       <c r="G4">
-        <v>18</v>
+        <v>700</v>
       </c>
       <c r="H4">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4">
         <v>34</v>
-      </c>
-      <c r="I4">
-        <v>700</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>59</v>
       </c>
       <c r="L4" t="s">
         <v>60</v>
@@ -3647,34 +3647,34 @@
         <v>39</v>
       </c>
       <c r="B5">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
+        <v>0.7</v>
+      </c>
+      <c r="E5">
+        <v>0.8945924348455052</v>
+      </c>
+      <c r="F5">
         <v>20</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.7868723691171251</v>
-      </c>
       <c r="G5">
+        <v>700</v>
+      </c>
+      <c r="H5">
         <v>18</v>
       </c>
-      <c r="H5">
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5">
         <v>34</v>
-      </c>
-      <c r="I5">
-        <v>700</v>
-      </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
-        <v>59</v>
       </c>
       <c r="L5" t="s">
         <v>60</v>
@@ -3688,34 +3688,34 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>0.7</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.7062713641258522</v>
       </c>
       <c r="F6">
-        <v>0.7271943219197584</v>
+        <v>14</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>700</v>
       </c>
       <c r="H6">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6">
         <v>34</v>
-      </c>
-      <c r="I6">
-        <v>700</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
       </c>
       <c r="L6" t="s">
         <v>60</v>
@@ -3729,34 +3729,34 @@
         <v>41</v>
       </c>
       <c r="B7">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
+        <v>0.7</v>
+      </c>
+      <c r="E7">
+        <v>0.9063653022110552</v>
+      </c>
+      <c r="F7">
         <v>20</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.8082914667917314</v>
-      </c>
       <c r="G7">
+        <v>700</v>
+      </c>
+      <c r="H7">
         <v>18</v>
       </c>
-      <c r="H7">
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7">
         <v>34</v>
-      </c>
-      <c r="I7">
-        <v>700</v>
-      </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
-        <v>59</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
@@ -3770,34 +3770,34 @@
         <v>42</v>
       </c>
       <c r="B8">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>0.7</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.7424831330264211</v>
       </c>
       <c r="F8">
-        <v>0.7318471288092089</v>
+        <v>15</v>
       </c>
       <c r="G8">
-        <v>17</v>
+        <v>700</v>
       </c>
       <c r="H8">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8">
         <v>34</v>
-      </c>
-      <c r="I8">
-        <v>700</v>
-      </c>
-      <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
-        <v>59</v>
       </c>
       <c r="L8" t="s">
         <v>60</v>
@@ -3811,34 +3811,34 @@
         <v>43</v>
       </c>
       <c r="B9">
+        <v>0.03707543901101638</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
         <v>0.7</v>
       </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
+      <c r="E9">
+        <v>0.8366302932834155</v>
+      </c>
+      <c r="F9">
         <v>19</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.7980950796610159</v>
-      </c>
       <c r="G9">
-        <v>17</v>
+        <v>700</v>
       </c>
       <c r="H9">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9">
         <v>34</v>
-      </c>
-      <c r="I9">
-        <v>700</v>
-      </c>
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
-        <v>59</v>
       </c>
       <c r="L9" t="s">
         <v>60</v>
@@ -3852,34 +3852,34 @@
         <v>44</v>
       </c>
       <c r="B10">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>0.7</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.7892020611871579</v>
       </c>
       <c r="F10">
-        <v>0.7916945222202614</v>
+        <v>19</v>
       </c>
       <c r="G10">
-        <v>18</v>
+        <v>700</v>
       </c>
       <c r="H10">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10">
         <v>34</v>
-      </c>
-      <c r="I10">
-        <v>700</v>
-      </c>
-      <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
-        <v>59</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
@@ -3893,34 +3893,34 @@
         <v>45</v>
       </c>
       <c r="B11">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>0.7</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.7208906850722931</v>
       </c>
       <c r="F11">
-        <v>0.7972238813740014</v>
+        <v>15</v>
       </c>
       <c r="G11">
-        <v>18</v>
+        <v>700</v>
       </c>
       <c r="H11">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11">
         <v>34</v>
-      </c>
-      <c r="I11">
-        <v>700</v>
-      </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
-        <v>59</v>
       </c>
       <c r="L11" t="s">
         <v>60</v>
@@ -3988,34 +3988,34 @@
         <v>36</v>
       </c>
       <c r="B2">
+        <v>0.0196080366815155</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
         <v>0.8</v>
       </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>21</v>
-      </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.8525531232162548</v>
       </c>
       <c r="F2">
-        <v>0.8714276585230173</v>
+        <v>19</v>
       </c>
       <c r="G2">
-        <v>19</v>
+        <v>700</v>
       </c>
       <c r="H2">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2">
         <v>34</v>
-      </c>
-      <c r="I2">
-        <v>700</v>
-      </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
-        <v>59</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -4029,34 +4029,34 @@
         <v>37</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.8</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>23</v>
-      </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.8539452014043691</v>
       </c>
       <c r="F3">
-        <v>0.8784670728333785</v>
+        <v>21</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>700</v>
       </c>
       <c r="H3">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3">
         <v>34</v>
-      </c>
-      <c r="I3">
-        <v>700</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
@@ -4070,34 +4070,34 @@
         <v>38</v>
       </c>
       <c r="B4">
+        <v>0.04575874071720502</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
         <v>0.8</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.815279744169939</v>
       </c>
       <c r="F4">
-        <v>0.8575722642942879</v>
+        <v>19</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>700</v>
       </c>
       <c r="H4">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4">
         <v>34</v>
-      </c>
-      <c r="I4">
-        <v>700</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>59</v>
       </c>
       <c r="L4" t="s">
         <v>60</v>
@@ -4111,34 +4111,34 @@
         <v>39</v>
       </c>
       <c r="B5">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>0.8</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.8945924348455052</v>
       </c>
       <c r="F5">
-        <v>0.8023072713103823</v>
+        <v>20</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>700</v>
       </c>
       <c r="H5">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5">
         <v>34</v>
-      </c>
-      <c r="I5">
-        <v>700</v>
-      </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
-        <v>59</v>
       </c>
       <c r="L5" t="s">
         <v>60</v>
@@ -4152,34 +4152,34 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>0.8</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.8493515900474379</v>
       </c>
       <c r="F6">
-        <v>0.8253288494611208</v>
+        <v>19</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>700</v>
       </c>
       <c r="H6">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6">
         <v>34</v>
-      </c>
-      <c r="I6">
-        <v>700</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
       </c>
       <c r="L6" t="s">
         <v>60</v>
@@ -4193,34 +4193,34 @@
         <v>41</v>
       </c>
       <c r="B7">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
+        <v>0.8</v>
+      </c>
+      <c r="E7">
+        <v>0.9063653022110552</v>
+      </c>
+      <c r="F7">
         <v>20</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.8082914667917314</v>
-      </c>
       <c r="G7">
+        <v>700</v>
+      </c>
+      <c r="H7">
         <v>18</v>
       </c>
-      <c r="H7">
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7">
         <v>34</v>
-      </c>
-      <c r="I7">
-        <v>700</v>
-      </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
-        <v>59</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
@@ -4234,34 +4234,34 @@
         <v>42</v>
       </c>
       <c r="B8">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>0.8</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.8207374428501472</v>
       </c>
       <c r="F8">
-        <v>0.8578587220073</v>
+        <v>19</v>
       </c>
       <c r="G8">
-        <v>18</v>
+        <v>700</v>
       </c>
       <c r="H8">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8">
         <v>34</v>
-      </c>
-      <c r="I8">
-        <v>700</v>
-      </c>
-      <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
-        <v>59</v>
       </c>
       <c r="L8" t="s">
         <v>60</v>
@@ -4275,34 +4275,34 @@
         <v>43</v>
       </c>
       <c r="B9">
+        <v>0.03707543901101638</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
         <v>0.8</v>
       </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.8366302932834155</v>
       </c>
       <c r="F9">
-        <v>0.8845042085507534</v>
+        <v>19</v>
       </c>
       <c r="G9">
-        <v>19</v>
+        <v>700</v>
       </c>
       <c r="H9">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9">
         <v>34</v>
-      </c>
-      <c r="I9">
-        <v>700</v>
-      </c>
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
-        <v>59</v>
       </c>
       <c r="L9" t="s">
         <v>60</v>
@@ -4316,34 +4316,34 @@
         <v>44</v>
       </c>
       <c r="B10">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
-        <v>21</v>
+        <v>0.8</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.9327036392880194</v>
       </c>
       <c r="F10">
-        <v>0.815862044102997</v>
+        <v>20</v>
       </c>
       <c r="G10">
-        <v>19</v>
+        <v>700</v>
       </c>
       <c r="H10">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10">
         <v>34</v>
-      </c>
-      <c r="I10">
-        <v>700</v>
-      </c>
-      <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
-        <v>59</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
@@ -4357,34 +4357,34 @@
         <v>45</v>
       </c>
       <c r="B11">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
-        <v>21</v>
+        <v>0.8</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.9289273022442087</v>
       </c>
       <c r="F11">
-        <v>0.8157411191171081</v>
+        <v>20</v>
       </c>
       <c r="G11">
-        <v>19</v>
+        <v>700</v>
       </c>
       <c r="H11">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11">
         <v>34</v>
-      </c>
-      <c r="I11">
-        <v>700</v>
-      </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
-        <v>59</v>
       </c>
       <c r="L11" t="s">
         <v>60</v>
@@ -4452,34 +4452,34 @@
         <v>36</v>
       </c>
       <c r="B2">
+        <v>0.0196080366815155</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
         <v>0.9</v>
       </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>23</v>
-      </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.9433461729434645</v>
       </c>
       <c r="F2">
-        <v>0.9351641465870453</v>
+        <v>21</v>
       </c>
       <c r="G2">
-        <v>21</v>
+        <v>700</v>
       </c>
       <c r="H2">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2">
         <v>34</v>
-      </c>
-      <c r="I2">
-        <v>700</v>
-      </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
-        <v>59</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -4493,34 +4493,34 @@
         <v>37</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.9</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>25</v>
-      </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.9615909347085909</v>
       </c>
       <c r="F3">
-        <v>0.90232755624038</v>
+        <v>23</v>
       </c>
       <c r="G3">
-        <v>24</v>
+        <v>700</v>
       </c>
       <c r="H3">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3">
         <v>34</v>
-      </c>
-      <c r="I3">
-        <v>700</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
@@ -4534,34 +4534,34 @@
         <v>38</v>
       </c>
       <c r="B4">
+        <v>0.04575874071720502</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
         <v>0.9</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>23</v>
-      </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.9010675273380697</v>
       </c>
       <c r="F4">
-        <v>0.9292117336084369</v>
+        <v>21</v>
       </c>
       <c r="G4">
-        <v>22</v>
+        <v>700</v>
       </c>
       <c r="H4">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4">
         <v>34</v>
-      </c>
-      <c r="I4">
-        <v>700</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>59</v>
       </c>
       <c r="L4" t="s">
         <v>60</v>
@@ -4575,34 +4575,34 @@
         <v>39</v>
       </c>
       <c r="B5">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>0.9</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.93386352352534</v>
       </c>
       <c r="F5">
-        <v>0.9342917866269187</v>
+        <v>22</v>
       </c>
       <c r="G5">
-        <v>22</v>
+        <v>700</v>
       </c>
       <c r="H5">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5">
         <v>34</v>
-      </c>
-      <c r="I5">
-        <v>700</v>
-      </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
-        <v>59</v>
       </c>
       <c r="L5" t="s">
         <v>60</v>
@@ -4616,34 +4616,34 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>0.9</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.9241894648722747</v>
       </c>
       <c r="F6">
-        <v>0.9031550001680239</v>
+        <v>21</v>
       </c>
       <c r="G6">
-        <v>21</v>
+        <v>700</v>
       </c>
       <c r="H6">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6">
         <v>34</v>
-      </c>
-      <c r="I6">
-        <v>700</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
       </c>
       <c r="L6" t="s">
         <v>60</v>
@@ -4657,34 +4657,34 @@
         <v>41</v>
       </c>
       <c r="B7">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
-        <v>24</v>
+        <v>0.9</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.9063653022110552</v>
       </c>
       <c r="F7">
-        <v>0.9319888988886146</v>
+        <v>20</v>
       </c>
       <c r="G7">
-        <v>22</v>
+        <v>700</v>
       </c>
       <c r="H7">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7">
         <v>34</v>
-      </c>
-      <c r="I7">
-        <v>700</v>
-      </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
-        <v>59</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
@@ -4698,34 +4698,34 @@
         <v>42</v>
       </c>
       <c r="B8">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>0.9</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.9786942181385639</v>
       </c>
       <c r="F8">
-        <v>0.912388363540787</v>
+        <v>20</v>
       </c>
       <c r="G8">
-        <v>20</v>
+        <v>700</v>
       </c>
       <c r="H8">
+        <v>18</v>
+      </c>
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8">
         <v>34</v>
-      </c>
-      <c r="I8">
-        <v>700</v>
-      </c>
-      <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
-        <v>59</v>
       </c>
       <c r="L8" t="s">
         <v>60</v>
@@ -4739,34 +4739,34 @@
         <v>43</v>
       </c>
       <c r="B9">
+        <v>0.03707543901101638</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
         <v>0.9</v>
       </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>23</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.9233824123635863</v>
       </c>
       <c r="F9">
-        <v>0.9521641668485588</v>
+        <v>21</v>
       </c>
       <c r="G9">
-        <v>21</v>
+        <v>700</v>
       </c>
       <c r="H9">
+        <v>18</v>
+      </c>
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9">
         <v>34</v>
-      </c>
-      <c r="I9">
-        <v>700</v>
-      </c>
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
-        <v>59</v>
       </c>
       <c r="L9" t="s">
         <v>60</v>
@@ -4780,34 +4780,34 @@
         <v>44</v>
       </c>
       <c r="B10">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
-        <v>24</v>
+        <v>0.9</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.9327036392880194</v>
       </c>
       <c r="F10">
-        <v>0.9162264390345145</v>
+        <v>20</v>
       </c>
       <c r="G10">
-        <v>22</v>
+        <v>700</v>
       </c>
       <c r="H10">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10">
         <v>34</v>
-      </c>
-      <c r="I10">
-        <v>700</v>
-      </c>
-      <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
-        <v>59</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
@@ -4821,34 +4821,34 @@
         <v>45</v>
       </c>
       <c r="B11">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
-        <v>24</v>
+        <v>0.9</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.9289273022442087</v>
       </c>
       <c r="F11">
-        <v>0.9225888582143202</v>
+        <v>20</v>
       </c>
       <c r="G11">
-        <v>22</v>
+        <v>700</v>
       </c>
       <c r="H11">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11">
         <v>34</v>
-      </c>
-      <c r="I11">
-        <v>700</v>
-      </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
-        <v>59</v>
       </c>
       <c r="L11" t="s">
         <v>60</v>
